--- a/strategy/全球购策略/data/组合历史收益率.xlsx
+++ b/strategy/全球购策略/data/组合历史收益率.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>-0.0005583115529482763</v>
       </c>
       <c r="C3">
-        <v>-0.000629781716403377</v>
+        <v>-0.003536533660599472</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>-0.002455538600115714</v>
       </c>
       <c r="C4">
-        <v>-0.009529151037585226</v>
+        <v>-0.007647098081418391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>-0.04544858918663031</v>
       </c>
       <c r="C5">
-        <v>-0.0474778913483398</v>
+        <v>-0.02353714006526442</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>-0.0325591695544013</v>
       </c>
       <c r="C6">
-        <v>-0.03652352093318678</v>
+        <v>-0.01562507704596294</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>-0.04465309892348746</v>
       </c>
       <c r="C7">
-        <v>-0.0477721241519008</v>
+        <v>-0.02121133802246289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>-0.05163884137388264</v>
       </c>
       <c r="C8">
-        <v>-0.04806289943711151</v>
+        <v>-0.02672697387332434</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>-0.04685699759101336</v>
       </c>
       <c r="C9">
-        <v>-0.04542458193716425</v>
+        <v>-0.02735086683879018</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>-0.06712834245574906</v>
       </c>
       <c r="C10">
-        <v>-0.05778334316065137</v>
+        <v>-0.03175819565914328</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>-0.04210160138236174</v>
       </c>
       <c r="C11">
-        <v>-0.04541292910028594</v>
+        <v>-0.02109682870721441</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>-0.004883769158129048</v>
       </c>
       <c r="C12">
-        <v>-0.02397696977917907</v>
+        <v>-0.006087511934571355</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>-0.02864729556404833</v>
       </c>
       <c r="C13">
-        <v>-0.04164566096219813</v>
+        <v>-0.01436228950119278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>-0.02728402983766176</v>
       </c>
       <c r="C14">
-        <v>-0.05075245901677883</v>
+        <v>-0.02028568005129816</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>-0.025530871763353</v>
       </c>
       <c r="C15">
-        <v>-0.04851306935801702</v>
+        <v>-0.02266030451072076</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>-0.03114725264738705</v>
       </c>
       <c r="C16">
-        <v>-0.05635528452762528</v>
+        <v>-0.02998263754463903</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>-0.05764698355938069</v>
       </c>
       <c r="C17">
-        <v>-0.06697149927699886</v>
+        <v>-0.03788829247832826</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>-0.0483826073844752</v>
       </c>
       <c r="C18">
-        <v>-0.05993989132470301</v>
+        <v>-0.03575503841464167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>-0.03636035238948221</v>
       </c>
       <c r="C19">
-        <v>-0.04696394625362355</v>
+        <v>-0.02607110380724942</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>-0.02994181195586287</v>
       </c>
       <c r="C20">
-        <v>-0.03639995459244749</v>
+        <v>-0.01762622192117025</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.00116551626536654</v>
       </c>
       <c r="C21">
-        <v>-0.01330610189541392</v>
+        <v>-0.002690550512598588</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>-0.006306156670585206</v>
       </c>
       <c r="C22">
-        <v>-0.02296961267073594</v>
+        <v>-0.009386166076459923</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>-0.01166625037050684</v>
       </c>
       <c r="C23">
-        <v>-0.02024155762572888</v>
+        <v>-0.00853300699609294</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>-0.0174201309009453</v>
       </c>
       <c r="C24">
-        <v>-0.01733258830003692</v>
+        <v>-0.007106850426739419</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>-0.01985185206589979</v>
       </c>
       <c r="C25">
-        <v>-0.01795356222071587</v>
+        <v>-0.008728693551620981</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>-0.03225010676991846</v>
       </c>
       <c r="C26">
-        <v>-0.02999651829398498</v>
+        <v>-0.01479563942898043</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>-0.02184510943797968</v>
       </c>
       <c r="C27">
-        <v>-0.02550481951047312</v>
+        <v>-0.01151315480942394</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>-0.01295611015509757</v>
       </c>
       <c r="C28">
-        <v>-0.01713349495253103</v>
+        <v>-0.005553648124974164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>-0.02166933438636509</v>
       </c>
       <c r="C29">
-        <v>-0.02508578748050772</v>
+        <v>-0.008280364112928318</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>-0.01130084117210006</v>
       </c>
       <c r="C30">
-        <v>-0.01152172824399778</v>
+        <v>-0.00151171827935237</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>-0.006939700536764071</v>
       </c>
       <c r="C31">
-        <v>-0.007632252315187271</v>
+        <v>0.0004535658125044417</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>0.003313066620088012</v>
       </c>
       <c r="C32">
-        <v>-0.007317543587020969</v>
+        <v>0.0004665570878250591</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>-0.01752773413647657</v>
       </c>
       <c r="C33">
-        <v>-0.02783495383494605</v>
+        <v>-0.009926415216795381</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>-0.01532426795781372</v>
       </c>
       <c r="C34">
-        <v>-0.02307724356842067</v>
+        <v>-0.005450283933657096</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>-0.01862629498383284</v>
       </c>
       <c r="C35">
-        <v>-0.02351032696657007</v>
+        <v>-0.006638512159323873</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>-0.03813414551864414</v>
       </c>
       <c r="C36">
-        <v>-0.03848252373898453</v>
+        <v>-0.0109155370379389</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>-0.03873622591688641</v>
       </c>
       <c r="C37">
-        <v>-0.02881875824397184</v>
+        <v>-0.008597571940143989</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>-0.03986110882514327</v>
       </c>
       <c r="C38">
-        <v>-0.02783285847544115</v>
+        <v>-0.007665825861663311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>-0.02835518355237221</v>
       </c>
       <c r="C39">
-        <v>-0.01345429706546619</v>
+        <v>-0.002008295273157823</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>-0.03965590668698971</v>
       </c>
       <c r="C40">
-        <v>-0.024398962720241</v>
+        <v>-0.006247601137800651</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>-0.02996247347892489</v>
       </c>
       <c r="C41">
-        <v>-0.01818315036773244</v>
+        <v>-0.00187884533518512</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>-0.005632262224469664</v>
       </c>
       <c r="C42">
-        <v>0.00424777981722313</v>
+        <v>0.009733733821475132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>-0.003679331595635826</v>
       </c>
       <c r="C43">
-        <v>-0.004452477082708017</v>
+        <v>0.007960905005996111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>-0.007860963860207071</v>
       </c>
       <c r="C44">
-        <v>-0.01386650799219369</v>
+        <v>0.00568477388548061</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>-0.02709556457906248</v>
       </c>
       <c r="C45">
-        <v>-0.03107145350922491</v>
+        <v>-0.005604986072833329</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>-0.02707435764054</v>
       </c>
       <c r="C46">
-        <v>-0.03675656520929116</v>
+        <v>-0.007080953804765477</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>-0.03708246661907766</v>
       </c>
       <c r="C47">
-        <v>-0.044638965469181</v>
+        <v>-0.0102646889947049</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>-0.03288294338618458</v>
       </c>
       <c r="C48">
-        <v>-0.03981656948104362</v>
+        <v>-0.008017027613029581</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>-0.02988485680452257</v>
       </c>
       <c r="C49">
-        <v>-0.03245582585236584</v>
+        <v>-0.005096985297329604</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>-0.01642917384869202</v>
       </c>
       <c r="C50">
-        <v>-0.02542499497938122</v>
+        <v>0.0008834307321095025</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>-0.03131819895463206</v>
       </c>
       <c r="C51">
-        <v>-0.04282834644211364</v>
+        <v>-0.007947391437216456</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>-0.03265686576190252</v>
       </c>
       <c r="C52">
-        <v>-0.04688300140600576</v>
+        <v>-0.01171861083080594</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>-0.04174690743591369</v>
       </c>
       <c r="C53">
-        <v>-0.0536051712749297</v>
+        <v>-0.01853530307987739</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>-0.05200255827935174</v>
       </c>
       <c r="C54">
-        <v>-0.06112454465761596</v>
+        <v>-0.02462055109958905</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>-0.05846392836026937</v>
       </c>
       <c r="C55">
-        <v>-0.06815521811834291</v>
+        <v>-0.02520672657915979</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>-0.06890695187759521</v>
       </c>
       <c r="C56">
-        <v>-0.07514393242819073</v>
+        <v>-0.02832709556982083</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>-0.0664605658882127</v>
       </c>
       <c r="C57">
-        <v>-0.07845929180857825</v>
+        <v>-0.02439617293328822</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>-0.07220402564443307</v>
       </c>
       <c r="C58">
-        <v>-0.08178766615464095</v>
+        <v>-0.02404886397867134</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>-0.07640676926693468</v>
       </c>
       <c r="C59">
-        <v>-0.07379242411587472</v>
+        <v>-0.02309140325106107</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>-0.07955840425345551</v>
       </c>
       <c r="C60">
-        <v>-0.07708960474479565</v>
+        <v>-0.02480712440386423</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>-0.07383705063795676</v>
       </c>
       <c r="C61">
-        <v>-0.07731463618612255</v>
+        <v>-0.02377320038380049</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>-0.08499238434972456</v>
       </c>
       <c r="C62">
-        <v>-0.08387097506134544</v>
+        <v>-0.03023778809413458</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>-0.08612570327096769</v>
       </c>
       <c r="C63">
-        <v>-0.09099114106613382</v>
+        <v>-0.03563191676396338</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>-0.06633735495952964</v>
       </c>
       <c r="C64">
-        <v>-0.06815633453477654</v>
+        <v>-0.02384487169402938</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>-0.0611771948451123</v>
       </c>
       <c r="C65">
-        <v>-0.06059048109731424</v>
+        <v>-0.01748465472372396</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>-0.0628896883488177</v>
       </c>
       <c r="C66">
-        <v>-0.05939607900073895</v>
+        <v>-0.01655722100721257</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>-0.0543135786351383</v>
       </c>
       <c r="C67">
-        <v>-0.04882662140925897</v>
+        <v>-0.009965668639780212</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>-0.05587397288732476</v>
       </c>
       <c r="C68">
-        <v>-0.05051625180180008</v>
+        <v>-0.01073196664029097</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>-0.04978039296784287</v>
       </c>
       <c r="C69">
-        <v>-0.04839168748888956</v>
+        <v>-0.01006635802903211</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>-0.05723743896349187</v>
       </c>
       <c r="C70">
-        <v>-0.0592792820759469</v>
+        <v>-0.0164280153099543</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>-0.04063383920085972</v>
       </c>
       <c r="C71">
-        <v>-0.0453012211139302</v>
+        <v>-0.008162781945390774</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>-0.04039810875929906</v>
       </c>
       <c r="C72">
-        <v>-0.04362845089502998</v>
+        <v>-0.004143796375884246</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>-0.04506072626166457</v>
       </c>
       <c r="C73">
-        <v>-0.04539013830626881</v>
+        <v>-0.00694263930970862</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>-0.02937435719310866</v>
       </c>
       <c r="C74">
-        <v>-0.03273441631581209</v>
+        <v>-0.0008205514835361027</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>-0.02455688363243891</v>
       </c>
       <c r="C75">
-        <v>-0.02922696868174468</v>
+        <v>0.0008501037089259089</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>-0.03623604741838149</v>
       </c>
       <c r="C76">
-        <v>-0.039243508422524</v>
+        <v>-0.005440748342640966</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>-0.036865476448667</v>
       </c>
       <c r="C77">
-        <v>-0.03758647840897367</v>
+        <v>-0.004046330119520158</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>-0.03197633666268984</v>
       </c>
       <c r="C78">
-        <v>-0.03544307916070455</v>
+        <v>-0.002037662282538766</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>-0.02494330754048157</v>
       </c>
       <c r="C79">
-        <v>-0.02654694356793252</v>
+        <v>0.00280185391607346</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>-0.02516265738431123</v>
       </c>
       <c r="C80">
-        <v>-0.03313888967957623</v>
+        <v>0.001259277112302115</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>-0.02231944794648777</v>
       </c>
       <c r="C81">
-        <v>-0.03662457787283813</v>
+        <v>-0.000135347873218894</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>-0.02928204275133195</v>
       </c>
       <c r="C82">
-        <v>-0.03417970167798356</v>
+        <v>0.00202685116519552</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>-0.02007936332432469</v>
       </c>
       <c r="C83">
-        <v>-0.03070750625275676</v>
+        <v>0.004260650341019856</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>-0.007433272512455957</v>
       </c>
       <c r="C84">
-        <v>-0.02126136062182227</v>
+        <v>0.01022494673750018</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>0.008982662574867906</v>
       </c>
       <c r="C85">
-        <v>-0.008000733124445603</v>
+        <v>0.01600361080205492</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>0.01558253220355299</v>
       </c>
       <c r="C86">
-        <v>0.0005919235883231622</v>
+        <v>0.02013346771613134</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>0.03391463598105049</v>
       </c>
       <c r="C87">
-        <v>0.01165535579701005</v>
+        <v>0.02497291935594337</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>0.03532750417971386</v>
       </c>
       <c r="C88">
-        <v>0.01226186201840562</v>
+        <v>0.0251014647867811</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>0.01797647936358127</v>
       </c>
       <c r="C89">
-        <v>0.003845568839306868</v>
+        <v>0.01717127218259917</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>0.04733040929559351</v>
       </c>
       <c r="C90">
-        <v>0.02284377035554686</v>
+        <v>0.02800304897839667</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>0.04560572928801521</v>
       </c>
       <c r="C91">
-        <v>0.02195586458638799</v>
+        <v>0.02461422054687246</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>0.04899705544729649</v>
       </c>
       <c r="C92">
-        <v>0.02528354895993479</v>
+        <v>0.0250877350380343</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>0.04647770732538925</v>
       </c>
       <c r="C93">
-        <v>0.02239014249669968</v>
+        <v>0.02314744869531027</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>0.0676430851395442</v>
       </c>
       <c r="C94">
-        <v>0.0359498380216543</v>
+        <v>0.03221722127603344</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>0.124742126673361</v>
       </c>
       <c r="C95">
-        <v>0.06367672149471582</v>
+        <v>0.04439853896917478</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>0.1124539538436473</v>
       </c>
       <c r="C96">
-        <v>0.05730512566489776</v>
+        <v>0.03977403715268424</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>0.1106870668145661</v>
       </c>
       <c r="C97">
-        <v>0.05481591018123044</v>
+        <v>0.03524601157724305</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>0.1082654856707979</v>
       </c>
       <c r="C98">
-        <v>0.05308732753825351</v>
+        <v>0.03747672480730868</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>0.1300404866240916</v>
       </c>
       <c r="C99">
-        <v>0.06362038095684253</v>
+        <v>0.04169425019718664</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>0.1420399049286656</v>
       </c>
       <c r="C100">
-        <v>0.07089413170540415</v>
+        <v>0.04721800260844899</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>0.1479319467475144</v>
       </c>
       <c r="C101">
-        <v>0.07699535501931831</v>
+        <v>0.05111138375107172</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>0.1565898527699092</v>
       </c>
       <c r="C102">
-        <v>0.08192990296181213</v>
+        <v>0.05160981647694718</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>0.1460440726154617</v>
       </c>
       <c r="C103">
-        <v>0.07800230033042466</v>
+        <v>0.04461790824478884</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>0.1052234167768635</v>
       </c>
       <c r="C104">
-        <v>0.05609703179916115</v>
+        <v>0.03714640525236934</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>0.1249659345703655</v>
       </c>
       <c r="C105">
-        <v>0.07550268013261485</v>
+        <v>0.04933831185509008</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>0.1318399933420045</v>
       </c>
       <c r="C106">
-        <v>0.08536694237100106</v>
+        <v>0.05425991781097461</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>0.1233693193533718</v>
       </c>
       <c r="C107">
-        <v>0.0795037938074532</v>
+        <v>0.05002342042220254</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>0.1163806029429881</v>
       </c>
       <c r="C108">
-        <v>0.07240938520803408</v>
+        <v>0.04807390452753957</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>0.128986270477087</v>
       </c>
       <c r="C109">
-        <v>0.08201627499940822</v>
+        <v>0.05626712108793086</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>0.1579679613511309</v>
       </c>
       <c r="C110">
-        <v>0.09828429934735405</v>
+        <v>0.06780665211560133</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>0.1531513248171745</v>
       </c>
       <c r="C111">
-        <v>0.09844677087671094</v>
+        <v>0.06713067804915407</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>0.1535533253151848</v>
       </c>
       <c r="C112">
-        <v>0.09614461993460743</v>
+        <v>0.06398006654396027</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>0.1539960425944251</v>
       </c>
       <c r="C113">
-        <v>0.09772294595058306</v>
+        <v>0.0617050385871265</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>0.1532092279478592</v>
       </c>
       <c r="C114">
-        <v>0.09441817681407971</v>
+        <v>0.06078910870911147</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>0.1286866067662245</v>
       </c>
       <c r="C115">
-        <v>0.08151247151053886</v>
+        <v>0.0562234578702161</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>0.117265044787487</v>
       </c>
       <c r="C116">
-        <v>0.07499669916069274</v>
+        <v>0.05108641234133771</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>0.1289541387230608</v>
       </c>
       <c r="C117">
-        <v>0.08064075435694207</v>
+        <v>0.0600657262325297</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>0.1249323060712746</v>
       </c>
       <c r="C118">
-        <v>0.07932372777113317</v>
+        <v>0.06131429567731783</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>0.1640612735751525</v>
       </c>
       <c r="C119">
-        <v>0.100157758803906</v>
+        <v>0.07329072659034219</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>0.1914694258879697</v>
       </c>
       <c r="C120">
-        <v>0.1178885498769104</v>
+        <v>0.0842055677245539</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>0.1906743408537808</v>
       </c>
       <c r="C121">
-        <v>0.1187883016053244</v>
+        <v>0.08140379696939304</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>0.2042547888923314</v>
       </c>
       <c r="C122">
-        <v>0.1271689185207052</v>
+        <v>0.08498978884657937</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>0.2149233490099978</v>
       </c>
       <c r="C123">
-        <v>0.1287589393207831</v>
+        <v>0.08466084954160413</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>0.2135727138796388</v>
       </c>
       <c r="C124">
-        <v>0.1325642999673917</v>
+        <v>0.08607350485291687</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>0.2184137136849933</v>
       </c>
       <c r="C125">
-        <v>0.1320937415688721</v>
+        <v>0.08760677947843032</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>0.2210861198514995</v>
       </c>
       <c r="C126">
-        <v>0.1329640894794852</v>
+        <v>0.08739077460824718</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>0.1973636390174289</v>
       </c>
       <c r="C127">
-        <v>0.1228060925232013</v>
+        <v>0.07825076936150466</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>0.1949775484653331</v>
       </c>
       <c r="C128">
-        <v>0.1259847919228705</v>
+        <v>0.08026384130394271</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>0.1912539285154509</v>
       </c>
       <c r="C129">
-        <v>0.1215136089150473</v>
+        <v>0.07443008398443918</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>0.2207994070465724</v>
       </c>
       <c r="C130">
-        <v>0.1328807024250884</v>
+        <v>0.08057154907893227</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>0.2211374743305887</v>
       </c>
       <c r="C131">
-        <v>0.1329502148052284</v>
+        <v>0.08059460323832379</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>0.2171006041212487</v>
       </c>
       <c r="C132">
-        <v>0.1283189518970089</v>
+        <v>0.07968136323553132</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>0.2302499384377514</v>
       </c>
       <c r="C133">
-        <v>0.1313016805900977</v>
+        <v>0.08243018744107933</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>0.2047146272739382</v>
       </c>
       <c r="C134">
-        <v>0.1260224095952245</v>
+        <v>0.07897701568354432</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>0.2028692828635978</v>
       </c>
       <c r="C135">
-        <v>0.1269316843299542</v>
+        <v>0.07687336361461639</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>0.2058007955920922</v>
       </c>
       <c r="C136">
-        <v>0.1276592600944897</v>
+        <v>0.07821014126704884</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>0.1820427795105082</v>
       </c>
       <c r="C137">
-        <v>0.1159876225546155</v>
+        <v>0.07079496042236122</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>0.167903706488802</v>
       </c>
       <c r="C138">
-        <v>0.1144142924588982</v>
+        <v>0.07356732633341601</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>0.1708814422470375</v>
       </c>
       <c r="C139">
-        <v>0.1141188234785615</v>
+        <v>0.07964333339527263</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>0.1744338997213408</v>
       </c>
       <c r="C140">
-        <v>0.1139926892368723</v>
+        <v>0.07998093712205323</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>0.1129475506666566</v>
       </c>
       <c r="C141">
-        <v>0.08670743347810106</v>
+        <v>0.06077684843834219</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>0.1228160663198832</v>
       </c>
       <c r="C142">
-        <v>0.08915941230040514</v>
+        <v>0.06696168077404341</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>0.1084288751268008</v>
       </c>
       <c r="C143">
-        <v>0.08178979044634804</v>
+        <v>0.06211265962233603</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>0.09009399814517072</v>
       </c>
       <c r="C144">
-        <v>0.0695543415026616</v>
+        <v>0.05201834828343865</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>0.1257832346182295</v>
       </c>
       <c r="C145">
-        <v>0.08666968235476791</v>
+        <v>0.06673366323133845</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>0.1091304579799255</v>
       </c>
       <c r="C146">
-        <v>0.07514046633622296</v>
+        <v>0.06370967855187071</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>0.1027687723515132</v>
       </c>
       <c r="C147">
-        <v>0.07459199114571602</v>
+        <v>0.06098254769033185</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>0.1250821812197997</v>
       </c>
       <c r="C148">
-        <v>0.08750573016818208</v>
+        <v>0.07245985308394109</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>0.1297101097142255</v>
       </c>
       <c r="C149">
-        <v>0.09268247120848327</v>
+        <v>0.07554994338801535</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>0.1038904655077968</v>
       </c>
       <c r="C150">
-        <v>0.07988555752418169</v>
+        <v>0.06478639742843395</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>0.09549526550906173</v>
       </c>
       <c r="C151">
-        <v>0.07554062822447793</v>
+        <v>0.05609602629376043</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>0.1088164241875389</v>
       </c>
       <c r="C152">
-        <v>0.08208970724300313</v>
+        <v>0.05983016487742443</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>0.1040212012485588</v>
       </c>
       <c r="C153">
-        <v>0.08010148862433031</v>
+        <v>0.05968561599806099</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>0.0862354977471258</v>
       </c>
       <c r="C154">
-        <v>0.06654994931055835</v>
+        <v>0.05047372827466945</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>0.08898412481406481</v>
       </c>
       <c r="C155">
-        <v>0.06757766556247424</v>
+        <v>0.04882424059703983</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>0.1007446748828613</v>
       </c>
       <c r="C156">
-        <v>0.07240896828410603</v>
+        <v>0.05075838671960242</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>0.1102528747527605</v>
       </c>
       <c r="C157">
-        <v>0.07234643526042905</v>
+        <v>0.0540548573850046</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>0.1080842200205401</v>
       </c>
       <c r="C158">
-        <v>0.06835753925719423</v>
+        <v>0.05287633645506262</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>0.1019580874976032</v>
       </c>
       <c r="C159">
-        <v>0.06610521443580808</v>
+        <v>0.05282496371685497</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>0.09890073902800633</v>
       </c>
       <c r="C160">
-        <v>0.05927013352260446</v>
+        <v>0.05213386508911322</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>0.09956555355386465</v>
       </c>
       <c r="C161">
-        <v>0.05602495660999662</v>
+        <v>0.05074526242369459</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>0.09050107600066726</v>
       </c>
       <c r="C162">
-        <v>0.05581048823447943</v>
+        <v>0.04600794939997188</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>0.09019613596487419</v>
       </c>
       <c r="C163">
-        <v>0.05964734888555623</v>
+        <v>0.04498792307167032</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>0.08139222514023503</v>
       </c>
       <c r="C164">
-        <v>0.05648151368355059</v>
+        <v>0.04348848444965947</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>0.09399719681106156</v>
       </c>
       <c r="C165">
-        <v>0.07046178550056492</v>
+        <v>0.05338569041928953</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>0.1235181789232724</v>
       </c>
       <c r="C166">
-        <v>0.08569671973737059</v>
+        <v>0.06365279383898592</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>0.115859908955517</v>
       </c>
       <c r="C167">
-        <v>0.07802745974721659</v>
+        <v>0.05841395046754827</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>0.1143374950385796</v>
       </c>
       <c r="C168">
-        <v>0.07971413815332973</v>
+        <v>0.05934372179523684</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>0.1060742834261459</v>
       </c>
       <c r="C169">
-        <v>0.07197217654313204</v>
+        <v>0.05533565438773214</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>0.1061439753445117</v>
       </c>
       <c r="C170">
-        <v>0.07380529645340883</v>
+        <v>0.05503338438116034</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>0.1096447925405741</v>
       </c>
       <c r="C171">
-        <v>0.07940128650977285</v>
+        <v>0.05911242269497974</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>0.1228251705339956</v>
       </c>
       <c r="C172">
-        <v>0.0923383774113633</v>
+        <v>0.0673009393916475</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>0.1534904038611453</v>
       </c>
       <c r="C173">
-        <v>0.1081465384333669</v>
+        <v>0.07781396045938238</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>0.1549986016440268</v>
       </c>
       <c r="C174">
-        <v>0.1077928531380135</v>
+        <v>0.07910897315791221</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>0.1570222810950883</v>
       </c>
       <c r="C175">
-        <v>0.1084309682942575</v>
+        <v>0.08080088236277749</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>0.1462099740359175</v>
       </c>
       <c r="C176">
-        <v>0.09993242872428243</v>
+        <v>0.07856008195031539</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>0.144332195066722</v>
       </c>
       <c r="C177">
-        <v>0.1003325061073077</v>
+        <v>0.08302851202181238</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>0.15534337390344</v>
       </c>
       <c r="C178">
-        <v>0.109768207828892</v>
+        <v>0.09025360235339241</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>0.1529007410911201</v>
       </c>
       <c r="C179">
-        <v>0.1076142837157477</v>
+        <v>0.08917458065810702</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>0.1828553093276679</v>
       </c>
       <c r="C180">
-        <v>0.1192397547093813</v>
+        <v>0.09818147995495874</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>0.1833493382204914</v>
       </c>
       <c r="C181">
-        <v>0.1224847316609365</v>
+        <v>0.1025220178475192</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>0.1716856673897862</v>
       </c>
       <c r="C182">
-        <v>0.1236188686085742</v>
+        <v>0.09896914942205526</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>0.1662335861643625</v>
       </c>
       <c r="C183">
-        <v>0.1221409896307248</v>
+        <v>0.09546772013138605</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>0.1717027256156407</v>
       </c>
       <c r="C184">
-        <v>0.1233415991790392</v>
+        <v>0.09865458140105043</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>0.1472064536650795</v>
       </c>
       <c r="C185">
-        <v>0.1091696772627353</v>
+        <v>0.08922660261767779</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>0.1445720500387253</v>
       </c>
       <c r="C186">
-        <v>0.1067067749639818</v>
+        <v>0.08823472515882647</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>0.1428684174596559</v>
       </c>
       <c r="C187">
-        <v>0.1075736904953377</v>
+        <v>0.08984075351118381</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>0.1424935673266725</v>
       </c>
       <c r="C188">
-        <v>0.1090264356988313</v>
+        <v>0.08937081192932417</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>0.1488935948240853</v>
       </c>
       <c r="C189">
-        <v>0.112593190971912</v>
+        <v>0.08998709203823818</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>0.1531237147284921</v>
       </c>
       <c r="C190">
-        <v>0.1160884286863422</v>
+        <v>0.09436576744957348</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>0.1484183055923298</v>
       </c>
       <c r="C191">
-        <v>0.1156815123924866</v>
+        <v>0.09211072705318357</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>0.1478242285965501</v>
       </c>
       <c r="C192">
-        <v>0.1147028190764547</v>
+        <v>0.0939888225781611</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>0.1380161461983236</v>
       </c>
       <c r="C193">
-        <v>0.1098492964147808</v>
+        <v>0.08793156741041064</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>0.1487779668917268</v>
       </c>
       <c r="C194">
-        <v>0.1129812316703755</v>
+        <v>0.09238533413953487</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>0.1416855549577782</v>
       </c>
       <c r="C195">
-        <v>0.1066713277146889</v>
+        <v>0.08965118213501388</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>0.1439799801900628</v>
       </c>
       <c r="C196">
-        <v>0.1120113600805919</v>
+        <v>0.09291208957137287</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>0.1521023293254049</v>
       </c>
       <c r="C197">
-        <v>0.1174468603251491</v>
+        <v>0.09626503958899213</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>0.1605887998547355</v>
       </c>
       <c r="C198">
-        <v>0.1171907359174242</v>
+        <v>0.09804782608408802</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>0.16264745757645</v>
       </c>
       <c r="C199">
-        <v>0.1183341355966541</v>
+        <v>0.1003788505685144</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>0.1614941635173825</v>
       </c>
       <c r="C200">
-        <v>0.1144512309748866</v>
+        <v>0.09902246400326842</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>0.1658330224020526</v>
       </c>
       <c r="C201">
-        <v>0.1158546766374007</v>
+        <v>0.1007804349648831</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>0.156424085888037</v>
       </c>
       <c r="C202">
-        <v>0.1060511558271939</v>
+        <v>0.09596505356909346</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>0.1478316716438883</v>
       </c>
       <c r="C203">
-        <v>0.09979753205580844</v>
+        <v>0.09259565802153946</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>0.1327631957771489</v>
       </c>
       <c r="C204">
-        <v>0.08857133859839128</v>
+        <v>0.08795392478047237</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>0.1134166163961607</v>
       </c>
       <c r="C205">
-        <v>0.07092948088073059</v>
+        <v>0.07545325018310911</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>0.1027759232228793</v>
       </c>
       <c r="C206">
-        <v>0.06933775466579295</v>
+        <v>0.07642383463568181</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2660,7 +2660,7 @@
         <v>0.09874398134434936</v>
       </c>
       <c r="C207">
-        <v>0.0703397997117059</v>
+        <v>0.07998536659918787</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>0.1118486879585689</v>
       </c>
       <c r="C208">
-        <v>0.07937718903232138</v>
+        <v>0.08963856135949033</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2682,7 +2682,7 @@
         <v>0.1021751040110981</v>
       </c>
       <c r="C209">
-        <v>0.07299401882704548</v>
+        <v>0.08849739510722432</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2693,7 +2693,7 @@
         <v>0.1201152641073191</v>
       </c>
       <c r="C210">
-        <v>0.07603816764288163</v>
+        <v>0.09473068700033282</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>0.1110915830970043</v>
       </c>
       <c r="C211">
-        <v>0.07274335225276762</v>
+        <v>0.09136871102526545</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>0.1156944669667841</v>
       </c>
       <c r="C212">
-        <v>0.06809083022742413</v>
+        <v>0.09413123172747029</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>0.1189090198389813</v>
       </c>
       <c r="C213">
-        <v>0.07244616447065511</v>
+        <v>0.09686226598745518</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>0.1234251465552847</v>
       </c>
       <c r="C214">
-        <v>0.07951649322282717</v>
+        <v>0.1023156934825025</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>0.1454068001363673</v>
       </c>
       <c r="C215">
-        <v>0.09705150858088807</v>
+        <v>0.1131191958906894</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2759,7 +2759,7 @@
         <v>0.1444955197464379</v>
       </c>
       <c r="C216">
-        <v>0.09504102509234791</v>
+        <v>0.1121211337791439</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2770,7 +2770,7 @@
         <v>0.1428436432232953</v>
       </c>
       <c r="C217">
-        <v>0.09731060305053085</v>
+        <v>0.1130254533863115</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>0.1460030930917902</v>
       </c>
       <c r="C218">
-        <v>0.09632888052030864</v>
+        <v>0.1121854427049642</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2792,7 +2792,7 @@
         <v>0.1534333741399911</v>
       </c>
       <c r="C219">
-        <v>0.09349842747235515</v>
+        <v>0.1183530077205466</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>0.1385718716433326</v>
       </c>
       <c r="C220">
-        <v>0.08763098733314734</v>
+        <v>0.1127026574656853</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>0.1524532615588765</v>
       </c>
       <c r="C221">
-        <v>0.09355312777283764</v>
+        <v>0.1174456028870194</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2825,7 +2825,7 @@
         <v>0.148540358813033</v>
       </c>
       <c r="C222">
-        <v>0.0936420529902473</v>
+        <v>0.1154127750642437</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>0.1451961109320687</v>
       </c>
       <c r="C223">
-        <v>0.09742736857922107</v>
+        <v>0.117763546740087</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>0.1476944060737011</v>
       </c>
       <c r="C224">
-        <v>0.09629009773306874</v>
+        <v>0.1194536839174429</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>0.16093408800678</v>
       </c>
       <c r="C225">
-        <v>0.101250158923607</v>
+        <v>0.1237040898228978</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>0.1623377698143205</v>
       </c>
       <c r="C226">
-        <v>0.1000053211066618</v>
+        <v>0.1193381453187672</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>0.1711524260503781</v>
       </c>
       <c r="C227">
-        <v>0.1175296313799914</v>
+        <v>0.1242175440558964</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>0.1819475109346338</v>
       </c>
       <c r="C228">
-        <v>0.1233036556249885</v>
+        <v>0.1282566003070502</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>0.1883243649728237</v>
       </c>
       <c r="C229">
-        <v>0.1271131756007813</v>
+        <v>0.1284410868257095</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>0.1949927974701908</v>
       </c>
       <c r="C230">
-        <v>0.1315995759678201</v>
+        <v>0.131056886146889</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>0.1912719517958521</v>
       </c>
       <c r="C231">
-        <v>0.130595386492973</v>
+        <v>0.1283825703992889</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>0.1833509446497932</v>
       </c>
       <c r="C232">
-        <v>0.1358023842164469</v>
+        <v>0.1264223672442648</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>0.194762967708481</v>
       </c>
       <c r="C233">
-        <v>0.1386314790565164</v>
+        <v>0.1290585759794751</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>0.1907975374532398</v>
       </c>
       <c r="C234">
-        <v>0.1368560323239456</v>
+        <v>0.1309452357701884</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>0.1728023062726192</v>
       </c>
       <c r="C235">
-        <v>0.1281960676466696</v>
+        <v>0.1258461600194252</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>0.1778795090990104</v>
       </c>
       <c r="C236">
-        <v>0.1283275183391064</v>
+        <v>0.1301828512950294</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>0.1817447703158284</v>
       </c>
       <c r="C237">
-        <v>0.1269554636585695</v>
+        <v>0.1305056770254842</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3001,7 +3001,7 @@
         <v>0.184783407967728</v>
       </c>
       <c r="C238">
-        <v>0.1261194672035226</v>
+        <v>0.1325306379068036</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>0.1726216797955891</v>
       </c>
       <c r="C239">
-        <v>0.120461132787214</v>
+        <v>0.1267580367088754</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>0.1754385589950178</v>
       </c>
       <c r="C240">
-        <v>0.1202005929175181</v>
+        <v>0.1274238854687302</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3034,7 +3034,7 @@
         <v>0.1672637645755046</v>
       </c>
       <c r="C241">
-        <v>0.1130260457704753</v>
+        <v>0.1269248619600789</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>0.1591452995899032</v>
       </c>
       <c r="C242">
-        <v>0.1089161168121424</v>
+        <v>0.1237231064951854</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>0.1622382333466457</v>
       </c>
       <c r="C243">
-        <v>0.1083159009368051</v>
+        <v>0.1206922130651269</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>0.151931770808561</v>
       </c>
       <c r="C244">
-        <v>0.1074735062621115</v>
+        <v>0.1217110241679134</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>0.1583448262513292</v>
       </c>
       <c r="C245">
-        <v>0.100249615200068</v>
+        <v>0.1247927508766631</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>0.1598997967625386</v>
       </c>
       <c r="C246">
-        <v>0.1010258749558246</v>
+        <v>0.1250200331761875</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>0.1684137464870492</v>
       </c>
       <c r="C247">
-        <v>0.1064671890649094</v>
+        <v>0.1336159716057355</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>0.1784427092643981</v>
       </c>
       <c r="C248">
-        <v>0.1180803448618315</v>
+        <v>0.1391036405108401</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3122,7 +3122,7 @@
         <v>0.1896632857672058</v>
       </c>
       <c r="C249">
-        <v>0.1239480289911674</v>
+        <v>0.1412125588321571</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>0.1850474413885195</v>
       </c>
       <c r="C250">
-        <v>0.12269947957674</v>
+        <v>0.1449112712070921</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>0.1813737331137721</v>
       </c>
       <c r="C251">
-        <v>0.1231705080081202</v>
+        <v>0.1469375066140417</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3155,7 +3155,7 @@
         <v>0.1820826435019567</v>
       </c>
       <c r="C252">
-        <v>0.1262171235438674</v>
+        <v>0.146855518374565</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>0.1669351135348258</v>
       </c>
       <c r="C253">
-        <v>0.1187366067546007</v>
+        <v>0.1421785743014345</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>0.1700220328660071</v>
       </c>
       <c r="C254">
-        <v>0.1203269701991596</v>
+        <v>0.1404244851772225</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>0.1740453000791868</v>
       </c>
       <c r="C255">
-        <v>0.1223421372012257</v>
+        <v>0.1421837574871738</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>0.1673200426465464</v>
       </c>
       <c r="C256">
-        <v>0.1185175708067334</v>
+        <v>0.1368414030625784</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>0.167203736363235</v>
       </c>
       <c r="C257">
-        <v>0.1215521196963809</v>
+        <v>0.1376355662477811</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>0.1742903287225299</v>
       </c>
       <c r="C258">
-        <v>0.1234246413354139</v>
+        <v>0.1398810053872315</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>0.1822963516387603</v>
       </c>
       <c r="C259">
-        <v>0.1313894196186749</v>
+        <v>0.1461062610564685</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>0.1777891780305176</v>
       </c>
       <c r="C260">
-        <v>0.1255850575692903</v>
+        <v>0.1446078183504524</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>0.1725338116207695</v>
       </c>
       <c r="C261">
-        <v>0.1218579352446594</v>
+        <v>0.1392641858246531</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3265,7 +3265,73 @@
         <v>0.1712852820901272</v>
       </c>
       <c r="C262">
-        <v>0.1234528620159123</v>
+        <v>0.1410143779767619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B263">
+        <v>0.1891160267957912</v>
+      </c>
+      <c r="C263">
+        <v>0.1472673018551682</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B264">
+        <v>0.196110569556726</v>
+      </c>
+      <c r="C264">
+        <v>0.1546618214728421</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B265">
+        <v>0.2028489187183506</v>
+      </c>
+      <c r="C265">
+        <v>0.1573552256646402</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B266">
+        <v>0.198090495184325</v>
+      </c>
+      <c r="C266">
+        <v>0.1543098040053845</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B267">
+        <v>0.2000357566638971</v>
+      </c>
+      <c r="C267">
+        <v>0.1585863449186899</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B268">
+        <v>0.1949197978537291</v>
+      </c>
+      <c r="C268">
+        <v>0.159606466729783</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/组合历史收益率.xlsx
+++ b/strategy/全球购策略/data/组合历史收益率.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43381</v>
+        <v>42653</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -410,2928 +410,8340 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43382</v>
+        <v>42654</v>
       </c>
       <c r="B3">
-        <v>-0.0005583115529482763</v>
+        <v>0.003514069798078889</v>
       </c>
       <c r="C3">
-        <v>-0.003536533660599472</v>
+        <v>0.001312460729898657</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43383</v>
+        <v>42655</v>
       </c>
       <c r="B4">
-        <v>-0.002455538600115714</v>
+        <v>0.001713099470403989</v>
       </c>
       <c r="C4">
-        <v>-0.007647098081418391</v>
+        <v>0.001432654508077835</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43384</v>
+        <v>42656</v>
       </c>
       <c r="B5">
-        <v>-0.04544858918663031</v>
+        <v>0.002452687392238584</v>
       </c>
       <c r="C5">
-        <v>-0.02353714006526442</v>
+        <v>-0.006247957165306572</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43385</v>
+        <v>42657</v>
       </c>
       <c r="B6">
-        <v>-0.0325591695544013</v>
+        <v>0.003398517446062232</v>
       </c>
       <c r="C6">
-        <v>-0.01562507704596294</v>
+        <v>-0.004247606227142153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43388</v>
+        <v>42660</v>
       </c>
       <c r="B7">
-        <v>-0.04465309892348746</v>
+        <v>-0.004175333357943289</v>
       </c>
       <c r="C7">
-        <v>-0.02121133802246289</v>
+        <v>-0.006353377794025228</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43389</v>
+        <v>42661</v>
       </c>
       <c r="B8">
-        <v>-0.05163884137388264</v>
+        <v>0.007729356193954207</v>
       </c>
       <c r="C8">
-        <v>-0.02672697387332434</v>
+        <v>0.001761792949544372</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43390</v>
+        <v>42662</v>
       </c>
       <c r="B9">
-        <v>-0.04685699759101336</v>
+        <v>0.006386327664863689</v>
       </c>
       <c r="C9">
-        <v>-0.02735086683879018</v>
+        <v>0.001432539593526627</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43391</v>
+        <v>42663</v>
       </c>
       <c r="B10">
-        <v>-0.06712834245574906</v>
+        <v>0.007148200638195323</v>
       </c>
       <c r="C10">
-        <v>-0.03175819565914328</v>
+        <v>0.002710181888905927</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43392</v>
+        <v>42664</v>
       </c>
       <c r="B11">
-        <v>-0.04210160138236174</v>
+        <v>0.009689720511440347</v>
       </c>
       <c r="C11">
-        <v>-0.02109682870721441</v>
+        <v>0.005612771904440095</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43395</v>
+        <v>42667</v>
       </c>
       <c r="B12">
-        <v>-0.004883769158129048</v>
+        <v>0.02057878565757387</v>
       </c>
       <c r="C12">
-        <v>-0.006087511934571355</v>
+        <v>0.01337900182849383</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43396</v>
+        <v>42668</v>
       </c>
       <c r="B13">
-        <v>-0.02864729556404833</v>
+        <v>0.02050999405507281</v>
       </c>
       <c r="C13">
-        <v>-0.01436228950119278</v>
+        <v>0.01187729605720622</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43397</v>
+        <v>42669</v>
       </c>
       <c r="B14">
-        <v>-0.02728402983766176</v>
+        <v>0.0169646258457028</v>
       </c>
       <c r="C14">
-        <v>-0.02028568005129816</v>
+        <v>0.006028979010333391</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43398</v>
+        <v>42670</v>
       </c>
       <c r="B15">
-        <v>-0.025530871763353</v>
+        <v>0.01445717618244768</v>
       </c>
       <c r="C15">
-        <v>-0.02266030451072076</v>
+        <v>0.001701810574656237</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43399</v>
+        <v>42671</v>
       </c>
       <c r="B16">
-        <v>-0.03114725264738705</v>
+        <v>0.01297650680016726</v>
       </c>
       <c r="C16">
-        <v>-0.02998263754463903</v>
+        <v>-0.001445681995603132</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43402</v>
+        <v>42674</v>
       </c>
       <c r="B17">
-        <v>-0.05764698355938069</v>
+        <v>0.01190350038078258</v>
       </c>
       <c r="C17">
-        <v>-0.03788829247832826</v>
+        <v>-0.004669114551073883</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43403</v>
+        <v>42675</v>
       </c>
       <c r="B18">
-        <v>-0.0483826073844752</v>
+        <v>0.01807911441613319</v>
       </c>
       <c r="C18">
-        <v>-0.03575503841464167</v>
+        <v>-0.005932078032649946</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43404</v>
+        <v>42676</v>
       </c>
       <c r="B19">
-        <v>-0.03636035238948221</v>
+        <v>0.01108843396217973</v>
       </c>
       <c r="C19">
-        <v>-0.02607110380724942</v>
+        <v>-0.01512142034280528</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43405</v>
+        <v>42677</v>
       </c>
       <c r="B20">
-        <v>-0.02994181195586287</v>
+        <v>0.01977144623484683</v>
       </c>
       <c r="C20">
-        <v>-0.01762622192117025</v>
+        <v>-0.01976177466997964</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43406</v>
+        <v>42678</v>
       </c>
       <c r="B21">
-        <v>0.00116551626536654</v>
+        <v>0.01680041814891187</v>
       </c>
       <c r="C21">
-        <v>-0.002690550512598588</v>
+        <v>-0.02100460576031604</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43409</v>
+        <v>42681</v>
       </c>
       <c r="B22">
-        <v>-0.006306156670585206</v>
+        <v>0.01746038930087757</v>
       </c>
       <c r="C22">
-        <v>-0.009386166076459923</v>
+        <v>-0.002965531666915711</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43410</v>
+        <v>42682</v>
       </c>
       <c r="B23">
-        <v>-0.01166625037050684</v>
+        <v>0.02138007404079012</v>
       </c>
       <c r="C23">
-        <v>-0.00853300699609294</v>
+        <v>0.001880695619836503</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43411</v>
+        <v>42683</v>
       </c>
       <c r="B24">
-        <v>-0.0174201309009453</v>
+        <v>0.01643802446573805</v>
       </c>
       <c r="C24">
-        <v>-0.007106850426739419</v>
+        <v>0.004848348972729122</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43412</v>
+        <v>42684</v>
       </c>
       <c r="B25">
-        <v>-0.01985185206589979</v>
+        <v>0.02663485381138631</v>
       </c>
       <c r="C25">
-        <v>-0.008728693551620981</v>
+        <v>0.009428859441513282</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43413</v>
+        <v>42685</v>
       </c>
       <c r="B26">
-        <v>-0.03225010676991846</v>
+        <v>0.03380815718987562</v>
       </c>
       <c r="C26">
-        <v>-0.01479563942898043</v>
+        <v>0.008630822378129954</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43416</v>
+        <v>42688</v>
       </c>
       <c r="B27">
-        <v>-0.02184510943797968</v>
+        <v>0.03728442050070435</v>
       </c>
       <c r="C27">
-        <v>-0.01151315480942394</v>
+        <v>0.008385432921398817</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43417</v>
+        <v>42689</v>
       </c>
       <c r="B28">
-        <v>-0.01295611015509757</v>
+        <v>0.03704614182806543</v>
       </c>
       <c r="C28">
-        <v>-0.005553648124974164</v>
+        <v>0.01625401922995051</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43418</v>
+        <v>42690</v>
       </c>
       <c r="B29">
-        <v>-0.02166933438636509</v>
+        <v>0.0368832595096571</v>
       </c>
       <c r="C29">
-        <v>-0.008280364112928318</v>
+        <v>0.01613965253358374</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43419</v>
+        <v>42691</v>
       </c>
       <c r="B30">
-        <v>-0.01130084117210006</v>
+        <v>0.03865616397263572</v>
       </c>
       <c r="C30">
-        <v>-0.00151171827935237</v>
+        <v>0.02021491119791241</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43420</v>
+        <v>42692</v>
       </c>
       <c r="B31">
-        <v>-0.006939700536764071</v>
+        <v>0.03336008637055987</v>
       </c>
       <c r="C31">
-        <v>0.0004535658125044417</v>
+        <v>0.02067953156409819</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43423</v>
+        <v>42695</v>
       </c>
       <c r="B32">
-        <v>0.003313066620088012</v>
+        <v>0.03981866733383366</v>
       </c>
       <c r="C32">
-        <v>0.0004665570878250591</v>
+        <v>0.02788064874749763</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43424</v>
+        <v>42696</v>
       </c>
       <c r="B33">
-        <v>-0.01752773413647657</v>
+        <v>0.04725674053742002</v>
       </c>
       <c r="C33">
-        <v>-0.009926415216795381</v>
+        <v>0.02998517327343797</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43425</v>
+        <v>42697</v>
       </c>
       <c r="B34">
-        <v>-0.01532426795781372</v>
+        <v>0.04902008860309759</v>
       </c>
       <c r="C34">
-        <v>-0.005450283933657096</v>
+        <v>0.03199588656611896</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43426</v>
+        <v>42698</v>
       </c>
       <c r="B35">
-        <v>-0.01862629498383284</v>
+        <v>0.05286890334280803</v>
       </c>
       <c r="C35">
-        <v>-0.006638512159323873</v>
+        <v>0.0317569325577467</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43427</v>
+        <v>42699</v>
       </c>
       <c r="B36">
-        <v>-0.03813414551864414</v>
+        <v>0.06169441271521348</v>
       </c>
       <c r="C36">
-        <v>-0.0109155370379389</v>
+        <v>0.03816490221715085</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43430</v>
+        <v>42702</v>
       </c>
       <c r="B37">
-        <v>-0.03873622591688641</v>
+        <v>0.06546022457287215</v>
       </c>
       <c r="C37">
-        <v>-0.008597571940143989</v>
+        <v>0.03406391932278852</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43431</v>
+        <v>42703</v>
       </c>
       <c r="B38">
-        <v>-0.03986110882514327</v>
+        <v>0.07324825898378684</v>
       </c>
       <c r="C38">
-        <v>-0.007665825861663311</v>
+        <v>0.03215085392490069</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43432</v>
+        <v>42704</v>
       </c>
       <c r="B39">
-        <v>-0.02835518355237221</v>
+        <v>0.06598800192579946</v>
       </c>
       <c r="C39">
-        <v>-0.002008295273157823</v>
+        <v>0.0305860997488272</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43433</v>
+        <v>42705</v>
       </c>
       <c r="B40">
-        <v>-0.03965590668698971</v>
+        <v>0.07315924534940188</v>
       </c>
       <c r="C40">
-        <v>-0.006247601137800651</v>
+        <v>0.0332739684183363</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43434</v>
+        <v>42706</v>
       </c>
       <c r="B41">
-        <v>-0.02996247347892489</v>
+        <v>0.06319399263231595</v>
       </c>
       <c r="C41">
-        <v>-0.00187884533518512</v>
+        <v>0.02252779933999793</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43437</v>
+        <v>42709</v>
       </c>
       <c r="B42">
-        <v>-0.005632262224469664</v>
+        <v>0.04701609093379377</v>
       </c>
       <c r="C42">
-        <v>0.009733733821475132</v>
+        <v>0.02307611075030214</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43438</v>
+        <v>42710</v>
       </c>
       <c r="B43">
-        <v>-0.003679331595635826</v>
+        <v>0.04399588352039929</v>
       </c>
       <c r="C43">
-        <v>0.007960905005996111</v>
+        <v>0.02494065886110475</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43439</v>
+        <v>42711</v>
       </c>
       <c r="B44">
-        <v>-0.007860963860207071</v>
+        <v>0.04831954549738882</v>
       </c>
       <c r="C44">
-        <v>0.00568477388548061</v>
+        <v>0.03420261626830712</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43440</v>
+        <v>42712</v>
       </c>
       <c r="B45">
-        <v>-0.02709556457906248</v>
+        <v>0.04684146476368989</v>
       </c>
       <c r="C45">
-        <v>-0.005604986072833329</v>
+        <v>0.03536590560271957</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43441</v>
+        <v>42713</v>
       </c>
       <c r="B46">
-        <v>-0.02707435764054</v>
+        <v>0.05324690270682697</v>
       </c>
       <c r="C46">
-        <v>-0.007080953804765477</v>
+        <v>0.03672243943262843</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43444</v>
+        <v>42716</v>
       </c>
       <c r="B47">
-        <v>-0.03708246661907766</v>
+        <v>0.03017255442428901</v>
       </c>
       <c r="C47">
-        <v>-0.0102646889947049</v>
+        <v>0.02791320933082342</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43445</v>
+        <v>42717</v>
       </c>
       <c r="B48">
-        <v>-0.03288294338618458</v>
+        <v>0.02876676689027491</v>
       </c>
       <c r="C48">
-        <v>-0.008017027613029581</v>
+        <v>0.02818785777303301</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43446</v>
+        <v>42718</v>
       </c>
       <c r="B49">
-        <v>-0.02988485680452257</v>
+        <v>0.02144376818150451</v>
       </c>
       <c r="C49">
-        <v>-0.005096985297329604</v>
+        <v>0.02797845293765255</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43447</v>
+        <v>42719</v>
       </c>
       <c r="B50">
-        <v>-0.01642917384869202</v>
+        <v>0.01022101714793755</v>
       </c>
       <c r="C50">
-        <v>0.0008834307321095025</v>
+        <v>0.0203882714048631</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43448</v>
+        <v>42720</v>
       </c>
       <c r="B51">
-        <v>-0.03131819895463206</v>
+        <v>0.01163314746802424</v>
       </c>
       <c r="C51">
-        <v>-0.007947391437216456</v>
+        <v>0.02110281896348232</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43451</v>
+        <v>42723</v>
       </c>
       <c r="B52">
-        <v>-0.03265686576190252</v>
+        <v>0.006775336413268773</v>
       </c>
       <c r="C52">
-        <v>-0.01171861083080594</v>
+        <v>0.01303686023784034</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43452</v>
+        <v>42724</v>
       </c>
       <c r="B53">
-        <v>-0.04174690743591369</v>
+        <v>0.00109486478401255</v>
       </c>
       <c r="C53">
-        <v>-0.01853530307987739</v>
+        <v>0.01230469219796038</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43453</v>
+        <v>42725</v>
       </c>
       <c r="B54">
-        <v>-0.05200255827935174</v>
+        <v>0.009253183434656975</v>
       </c>
       <c r="C54">
-        <v>-0.02462055109958905</v>
+        <v>0.01462791755530124</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43454</v>
+        <v>42726</v>
       </c>
       <c r="B55">
-        <v>-0.05846392836026937</v>
+        <v>0.008724454973571882</v>
       </c>
       <c r="C55">
-        <v>-0.02520672657915979</v>
+        <v>0.009082328854738364</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43455</v>
+        <v>42727</v>
       </c>
       <c r="B56">
-        <v>-0.06890695187759521</v>
+        <v>0.001300348409369656</v>
       </c>
       <c r="C56">
-        <v>-0.02832709556982083</v>
+        <v>0.007411564670269932</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43458</v>
+        <v>42730</v>
       </c>
       <c r="B57">
-        <v>-0.0664605658882127</v>
+        <v>0.005475487060114581</v>
       </c>
       <c r="C57">
-        <v>-0.02439617293328822</v>
+        <v>0.002945630983700598</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43459</v>
+        <v>42731</v>
       </c>
       <c r="B58">
-        <v>-0.07220402564443307</v>
+        <v>0.003865230129943997</v>
       </c>
       <c r="C58">
-        <v>-0.02404886397867134</v>
+        <v>0.003464476609940315</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43460</v>
+        <v>42732</v>
       </c>
       <c r="B59">
-        <v>-0.07640676926693468</v>
+        <v>-7.955795726843906e-05</v>
       </c>
       <c r="C59">
-        <v>-0.02309140325106107</v>
+        <v>0.007189902982932539</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43461</v>
+        <v>42733</v>
       </c>
       <c r="B60">
-        <v>-0.07955840425345551</v>
+        <v>-0.001068995780838633</v>
       </c>
       <c r="C60">
-        <v>-0.02480712440386423</v>
+        <v>0.008640588113238312</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43462</v>
+        <v>42734</v>
       </c>
       <c r="B61">
-        <v>-0.07383705063795676</v>
+        <v>0.00251255580230314</v>
       </c>
       <c r="C61">
-        <v>-0.02377320038380049</v>
+        <v>0.01245157393842056</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43467</v>
+        <v>42738</v>
       </c>
       <c r="B62">
-        <v>-0.08499238434972456</v>
+        <v>0.01129448494778584</v>
       </c>
       <c r="C62">
-        <v>-0.03023778809413458</v>
+        <v>0.02112437676365775</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43468</v>
+        <v>42739</v>
       </c>
       <c r="B63">
-        <v>-0.08612570327096769</v>
+        <v>0.01834612621899856</v>
       </c>
       <c r="C63">
-        <v>-0.03563191676396338</v>
+        <v>0.02399191686900659</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43469</v>
+        <v>42740</v>
       </c>
       <c r="B64">
-        <v>-0.06633735495952964</v>
+        <v>0.01812888661767098</v>
       </c>
       <c r="C64">
-        <v>-0.02384487169402938</v>
+        <v>0.02790700762976828</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>43472</v>
+        <v>42741</v>
       </c>
       <c r="B65">
-        <v>-0.0611771948451123</v>
+        <v>0.01271114357156278</v>
       </c>
       <c r="C65">
-        <v>-0.01748465472372396</v>
+        <v>0.02182157539798824</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>43473</v>
+        <v>42744</v>
       </c>
       <c r="B66">
-        <v>-0.0628896883488177</v>
+        <v>0.01719440416433926</v>
       </c>
       <c r="C66">
-        <v>-0.01655722100721257</v>
+        <v>0.02942010133299888</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>43474</v>
+        <v>42745</v>
       </c>
       <c r="B67">
-        <v>-0.0543135786351383</v>
+        <v>0.01577342260278347</v>
       </c>
       <c r="C67">
-        <v>-0.009965668639780212</v>
+        <v>0.03286878706875518</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43475</v>
+        <v>42746</v>
       </c>
       <c r="B68">
-        <v>-0.05587397288732476</v>
+        <v>0.009284546714896758</v>
       </c>
       <c r="C68">
-        <v>-0.01073196664029097</v>
+        <v>0.03864115851266381</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43476</v>
+        <v>42747</v>
       </c>
       <c r="B69">
-        <v>-0.04978039296784287</v>
+        <v>0.004720758138385461</v>
       </c>
       <c r="C69">
-        <v>-0.01006635802903211</v>
+        <v>0.03402581206596555</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43479</v>
+        <v>42748</v>
       </c>
       <c r="B70">
-        <v>-0.05723743896349187</v>
+        <v>0.005379655628985125</v>
       </c>
       <c r="C70">
-        <v>-0.0164280153099543</v>
+        <v>0.03429991922349651</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43480</v>
+        <v>42751</v>
       </c>
       <c r="B71">
-        <v>-0.04063383920085972</v>
+        <v>0.005268689121273207</v>
       </c>
       <c r="C71">
-        <v>-0.008162781945390774</v>
+        <v>0.02915102453090745</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43481</v>
+        <v>42752</v>
       </c>
       <c r="B72">
-        <v>-0.04039810875929906</v>
+        <v>0.006991431177168828</v>
       </c>
       <c r="C72">
-        <v>-0.004143796375884246</v>
+        <v>0.03177316033450661</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43482</v>
+        <v>42753</v>
       </c>
       <c r="B73">
-        <v>-0.04506072626166457</v>
+        <v>0.01048383779605211</v>
       </c>
       <c r="C73">
-        <v>-0.00694263930970862</v>
+        <v>0.03184796754327368</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43483</v>
+        <v>42754</v>
       </c>
       <c r="B74">
-        <v>-0.02937435719310866</v>
+        <v>0.007685313806561345</v>
       </c>
       <c r="C74">
-        <v>-0.0008205514835361027</v>
+        <v>0.02965597635161088</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43486</v>
+        <v>42755</v>
       </c>
       <c r="B75">
-        <v>-0.02455688363243891</v>
+        <v>0.01468669211681561</v>
       </c>
       <c r="C75">
-        <v>0.0008501037089259089</v>
+        <v>0.02937958064875623</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43487</v>
+        <v>42758</v>
       </c>
       <c r="B76">
-        <v>-0.03623604741838149</v>
+        <v>0.01724774814269869</v>
       </c>
       <c r="C76">
-        <v>-0.005440748342640966</v>
+        <v>0.02663535663933092</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43488</v>
+        <v>42759</v>
       </c>
       <c r="B77">
-        <v>-0.036865476448667</v>
+        <v>0.0173552469525533</v>
       </c>
       <c r="C77">
-        <v>-0.004046330119520158</v>
+        <v>0.02766087845449383</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43489</v>
+        <v>42760</v>
       </c>
       <c r="B78">
-        <v>-0.03197633666268984</v>
+        <v>0.02027936541391484</v>
       </c>
       <c r="C78">
-        <v>-0.002037662282538766</v>
+        <v>0.03749401488938986</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43490</v>
+        <v>42761</v>
       </c>
       <c r="B79">
-        <v>-0.02494330754048157</v>
+        <v>0.02350890202266687</v>
       </c>
       <c r="C79">
-        <v>0.00280185391607346</v>
+        <v>0.04403224332835776</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43493</v>
+        <v>42769</v>
       </c>
       <c r="B80">
-        <v>-0.02516265738431123</v>
+        <v>0.01704242753036356</v>
       </c>
       <c r="C80">
-        <v>0.001259277112302115</v>
+        <v>0.038344686765027</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43494</v>
+        <v>42772</v>
       </c>
       <c r="B81">
-        <v>-0.02231944794648777</v>
+        <v>0.01917839338703153</v>
       </c>
       <c r="C81">
-        <v>-0.000135347873218894</v>
+        <v>0.04278556427693148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43495</v>
+        <v>42773</v>
       </c>
       <c r="B82">
-        <v>-0.02928204275133195</v>
+        <v>0.0169160314350616</v>
       </c>
       <c r="C82">
-        <v>0.00202685116519552</v>
+        <v>0.04227293438987245</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43496</v>
+        <v>42774</v>
       </c>
       <c r="B83">
-        <v>-0.02007936332432469</v>
+        <v>0.0216046120390696</v>
       </c>
       <c r="C83">
-        <v>0.004260650341019856</v>
+        <v>0.04925622890254866</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43497</v>
+        <v>42775</v>
       </c>
       <c r="B84">
-        <v>-0.007433272512455957</v>
+        <v>0.02516861473598553</v>
       </c>
       <c r="C84">
-        <v>0.01022494673750018</v>
+        <v>0.05079945781235073</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43507</v>
+        <v>42776</v>
       </c>
       <c r="B85">
-        <v>0.008982662574867906</v>
+        <v>0.02985938117119469</v>
       </c>
       <c r="C85">
-        <v>0.01600361080205492</v>
+        <v>0.05543901041247246</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43508</v>
+        <v>42779</v>
       </c>
       <c r="B86">
-        <v>0.01558253220355299</v>
+        <v>0.0360674610516325</v>
       </c>
       <c r="C86">
-        <v>0.02013346771613134</v>
+        <v>0.06151236663141502</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43509</v>
+        <v>42780</v>
       </c>
       <c r="B87">
-        <v>0.03391463598105049</v>
+        <v>0.03593744603897941</v>
       </c>
       <c r="C87">
-        <v>0.02497291935594337</v>
+        <v>0.06245651483442249</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43510</v>
+        <v>42781</v>
       </c>
       <c r="B88">
-        <v>0.03532750417971386</v>
+        <v>0.03208685337161055</v>
       </c>
       <c r="C88">
-        <v>0.0251014647867811</v>
+        <v>0.06879923524600895</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43511</v>
+        <v>42782</v>
       </c>
       <c r="B89">
-        <v>0.01797647936358127</v>
+        <v>0.03735591742198929</v>
       </c>
       <c r="C89">
-        <v>0.01717127218259917</v>
+        <v>0.07046972763637993</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43514</v>
+        <v>42783</v>
       </c>
       <c r="B90">
-        <v>0.04733040929559351</v>
+        <v>0.03218420546977674</v>
       </c>
       <c r="C90">
-        <v>0.02800304897839667</v>
+        <v>0.06732900975979983</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43515</v>
+        <v>42786</v>
       </c>
       <c r="B91">
-        <v>0.04560572928801521</v>
+        <v>0.04586627143328981</v>
       </c>
       <c r="C91">
-        <v>0.02461422054687246</v>
+        <v>0.07170262613604006</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43516</v>
+        <v>42787</v>
       </c>
       <c r="B92">
-        <v>0.04899705544729649</v>
+        <v>0.04896260865638014</v>
       </c>
       <c r="C92">
-        <v>0.0250877350380343</v>
+        <v>0.0734424764337418</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43517</v>
+        <v>42788</v>
       </c>
       <c r="B93">
-        <v>0.04647770732538925</v>
+        <v>0.05082983048415213</v>
       </c>
       <c r="C93">
-        <v>0.02314744869531027</v>
+        <v>0.07862222530047269</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43518</v>
+        <v>42789</v>
       </c>
       <c r="B94">
-        <v>0.0676430851395442</v>
+        <v>0.04645427347103159</v>
       </c>
       <c r="C94">
-        <v>0.03221722127603344</v>
+        <v>0.07626835962973355</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43521</v>
+        <v>42790</v>
       </c>
       <c r="B95">
-        <v>0.124742126673361</v>
+        <v>0.04663058139323839</v>
       </c>
       <c r="C95">
-        <v>0.04439853896917478</v>
+        <v>0.07344956636782918</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43522</v>
+        <v>42793</v>
       </c>
       <c r="B96">
-        <v>0.1124539538436473</v>
+        <v>0.03919160760590712</v>
       </c>
       <c r="C96">
-        <v>0.03977403715268424</v>
+        <v>0.07525018198478062</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43523</v>
+        <v>42794</v>
       </c>
       <c r="B97">
-        <v>0.1106870668145661</v>
+        <v>0.04096768919301241</v>
       </c>
       <c r="C97">
-        <v>0.03524601157724305</v>
+        <v>0.06901061383395057</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43524</v>
+        <v>42795</v>
       </c>
       <c r="B98">
-        <v>0.1082654856707979</v>
+        <v>0.04245344923672412</v>
       </c>
       <c r="C98">
-        <v>0.03747672480730868</v>
+        <v>0.07752233340087189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43525</v>
+        <v>42796</v>
       </c>
       <c r="B99">
-        <v>0.1300404866240916</v>
+        <v>0.0360508606328056</v>
       </c>
       <c r="C99">
-        <v>0.04169425019718664</v>
+        <v>0.0735007187008847</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43528</v>
+        <v>42797</v>
       </c>
       <c r="B100">
-        <v>0.1420399049286656</v>
+        <v>0.03410110841738412</v>
       </c>
       <c r="C100">
-        <v>0.04721800260844899</v>
+        <v>0.07134504919770523</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43529</v>
+        <v>42800</v>
       </c>
       <c r="B101">
-        <v>0.1479319467475144</v>
+        <v>0.03915087023131147</v>
       </c>
       <c r="C101">
-        <v>0.05111138375107172</v>
+        <v>0.06899851482331476</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43530</v>
+        <v>42801</v>
       </c>
       <c r="B102">
-        <v>0.1565898527699092</v>
+        <v>0.04116873047374359</v>
       </c>
       <c r="C102">
-        <v>0.05160981647694718</v>
+        <v>0.07176193877336567</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43531</v>
+        <v>42802</v>
       </c>
       <c r="B103">
-        <v>0.1460440726154617</v>
+        <v>0.03968862773963444</v>
       </c>
       <c r="C103">
-        <v>0.04461790824478884</v>
+        <v>0.07403347575292907</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43532</v>
+        <v>42803</v>
       </c>
       <c r="B104">
-        <v>0.1052234167768635</v>
+        <v>0.03370608135777986</v>
       </c>
       <c r="C104">
-        <v>0.03714640525236934</v>
+        <v>0.06957055798026635</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43535</v>
+        <v>42804</v>
       </c>
       <c r="B105">
-        <v>0.1249659345703655</v>
+        <v>0.03392203427383045</v>
       </c>
       <c r="C105">
-        <v>0.04933831185509008</v>
+        <v>0.07277331196786663</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43536</v>
+        <v>42807</v>
       </c>
       <c r="B106">
-        <v>0.1318399933420045</v>
+        <v>0.04214659339317439</v>
       </c>
       <c r="C106">
-        <v>0.05425991781097461</v>
+        <v>0.07683639052335822</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43537</v>
+        <v>42808</v>
       </c>
       <c r="B107">
-        <v>0.1233693193533718</v>
+        <v>0.04181927163436239</v>
       </c>
       <c r="C107">
-        <v>0.05002342042220254</v>
+        <v>0.07683578713679107</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43538</v>
+        <v>42809</v>
       </c>
       <c r="B108">
-        <v>0.1163806029429881</v>
+        <v>0.04371730532772311</v>
       </c>
       <c r="C108">
-        <v>0.04807390452753957</v>
+        <v>0.08012191027807836</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43539</v>
+        <v>42810</v>
       </c>
       <c r="B109">
-        <v>0.128986270477087</v>
+        <v>0.04872380942371279</v>
       </c>
       <c r="C109">
-        <v>0.05626712108793086</v>
+        <v>0.08654972195476818</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43542</v>
+        <v>42811</v>
       </c>
       <c r="B110">
-        <v>0.1579679613511309</v>
+        <v>0.0390557761000816</v>
       </c>
       <c r="C110">
-        <v>0.06780665211560133</v>
+        <v>0.08668666134692882</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43543</v>
+        <v>42814</v>
       </c>
       <c r="B111">
-        <v>0.1531513248171745</v>
+        <v>0.04006894107679737</v>
       </c>
       <c r="C111">
-        <v>0.06713067804915407</v>
+        <v>0.09151835355273752</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43544</v>
+        <v>42815</v>
       </c>
       <c r="B112">
-        <v>0.1535533253151848</v>
+        <v>0.04453645715708565</v>
       </c>
       <c r="C112">
-        <v>0.06398006654396027</v>
+        <v>0.08795568646431073</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43545</v>
+        <v>42816</v>
       </c>
       <c r="B113">
-        <v>0.1539960425944251</v>
+        <v>0.04013764157417454</v>
       </c>
       <c r="C113">
-        <v>0.0617050385871265</v>
+        <v>0.08035632905096035</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43546</v>
+        <v>42817</v>
       </c>
       <c r="B114">
-        <v>0.1532092279478592</v>
+        <v>0.04336378317284328</v>
       </c>
       <c r="C114">
-        <v>0.06078910870911147</v>
+        <v>0.07943806807606602</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43549</v>
+        <v>42818</v>
       </c>
       <c r="B115">
-        <v>0.1286866067662245</v>
+        <v>0.05093926910070889</v>
       </c>
       <c r="C115">
-        <v>0.0562234578702161</v>
+        <v>0.07956365629655249</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43550</v>
+        <v>42821</v>
       </c>
       <c r="B116">
-        <v>0.117265044787487</v>
+        <v>0.04789940347490362</v>
       </c>
       <c r="C116">
-        <v>0.05108641234133771</v>
+        <v>0.07341042737359205</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43551</v>
+        <v>42822</v>
       </c>
       <c r="B117">
-        <v>0.1289541387230608</v>
+        <v>0.04571203216579223</v>
       </c>
       <c r="C117">
-        <v>0.0600657262325297</v>
+        <v>0.08135207840969017</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43552</v>
+        <v>42823</v>
       </c>
       <c r="B118">
-        <v>0.1249323060712746</v>
+        <v>0.0444456078259714</v>
       </c>
       <c r="C118">
-        <v>0.06131429567731783</v>
+        <v>0.08491512342219476</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43553</v>
+        <v>42824</v>
       </c>
       <c r="B119">
-        <v>0.1640612735751525</v>
+        <v>0.03670429648240869</v>
       </c>
       <c r="C119">
-        <v>0.07329072659034219</v>
+        <v>0.08397038814723135</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43556</v>
+        <v>42825</v>
       </c>
       <c r="B120">
-        <v>0.1914694258879697</v>
+        <v>0.04194201663194108</v>
       </c>
       <c r="C120">
-        <v>0.0842055677245539</v>
+        <v>0.08013972248514367</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43557</v>
+        <v>42830</v>
       </c>
       <c r="B121">
-        <v>0.1906743408537808</v>
+        <v>0.05497432868645591</v>
       </c>
       <c r="C121">
-        <v>0.08140379696939304</v>
+        <v>0.08402773582265044</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43558</v>
+        <v>42831</v>
       </c>
       <c r="B122">
-        <v>0.2042547888923314</v>
+        <v>0.05770129318189365</v>
       </c>
       <c r="C122">
-        <v>0.08498978884657937</v>
+        <v>0.08493936177213723</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43559</v>
+        <v>42832</v>
       </c>
       <c r="B123">
-        <v>0.2149233490099978</v>
+        <v>0.05869368478413994</v>
       </c>
       <c r="C123">
-        <v>0.08466084954160413</v>
+        <v>0.08504990255876033</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43563</v>
+        <v>42835</v>
       </c>
       <c r="B124">
-        <v>0.2135727138796388</v>
+        <v>0.0553950861505339</v>
       </c>
       <c r="C124">
-        <v>0.08607350485291687</v>
+        <v>0.08575085919452419</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43564</v>
+        <v>42836</v>
       </c>
       <c r="B125">
-        <v>0.2184137136849933</v>
+        <v>0.05869215923189874</v>
       </c>
       <c r="C125">
-        <v>0.08760677947843032</v>
+        <v>0.08384617600529021</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43565</v>
+        <v>42837</v>
       </c>
       <c r="B126">
-        <v>0.2210861198514995</v>
+        <v>0.05657553800977699</v>
       </c>
       <c r="C126">
-        <v>0.08739077460824718</v>
+        <v>0.08262275740452241</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43566</v>
+        <v>42838</v>
       </c>
       <c r="B127">
-        <v>0.1973636390174289</v>
+        <v>0.05796916646737271</v>
       </c>
       <c r="C127">
-        <v>0.07825076936150466</v>
+        <v>0.07616167148847008</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43567</v>
+        <v>42839</v>
       </c>
       <c r="B128">
-        <v>0.1949775484653331</v>
+        <v>0.05033646104537404</v>
       </c>
       <c r="C128">
-        <v>0.08026384130394271</v>
+        <v>0.07359252701526708</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43570</v>
+        <v>42842</v>
       </c>
       <c r="B129">
-        <v>0.1912539285154509</v>
+        <v>0.04840601350114371</v>
       </c>
       <c r="C129">
-        <v>0.07443008398443918</v>
+        <v>0.07752424067771302</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43571</v>
+        <v>42843</v>
       </c>
       <c r="B130">
-        <v>0.2207994070465724</v>
+        <v>0.04363624096860108</v>
       </c>
       <c r="C130">
-        <v>0.08057154907893227</v>
+        <v>0.07236381063989539</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43572</v>
+        <v>42844</v>
       </c>
       <c r="B131">
-        <v>0.2211374743305887</v>
+        <v>0.03906086506963669</v>
       </c>
       <c r="C131">
-        <v>0.08059460323832379</v>
+        <v>0.06655370816542727</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43573</v>
+        <v>42845</v>
       </c>
       <c r="B132">
-        <v>0.2171006041212487</v>
+        <v>0.04324806350902688</v>
       </c>
       <c r="C132">
-        <v>0.07968136323553132</v>
+        <v>0.07477655513970771</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43574</v>
+        <v>42846</v>
       </c>
       <c r="B133">
-        <v>0.2302499384377514</v>
+        <v>0.04459930698556946</v>
       </c>
       <c r="C133">
-        <v>0.08243018744107933</v>
+        <v>0.0726994988479519</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43577</v>
+        <v>42849</v>
       </c>
       <c r="B134">
-        <v>0.2047146272739382</v>
+        <v>0.0348397007591057</v>
       </c>
       <c r="C134">
-        <v>0.07897701568354432</v>
+        <v>0.07331591971220375</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43578</v>
+        <v>42850</v>
       </c>
       <c r="B135">
-        <v>0.2028692828635978</v>
+        <v>0.03743771740751001</v>
       </c>
       <c r="C135">
-        <v>0.07687336361461639</v>
+        <v>0.082200473960232</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43579</v>
+        <v>42851</v>
       </c>
       <c r="B136">
-        <v>0.2058007955920922</v>
+        <v>0.03857246306400719</v>
       </c>
       <c r="C136">
-        <v>0.07821014126704884</v>
+        <v>0.08371829136894005</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43580</v>
+        <v>42852</v>
       </c>
       <c r="B137">
-        <v>0.1820427795105082</v>
+        <v>0.03898738183863215</v>
       </c>
       <c r="C137">
-        <v>0.07079496042236122</v>
+        <v>0.08620751883864219</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43581</v>
+        <v>42853</v>
       </c>
       <c r="B138">
-        <v>0.167903706488802</v>
+        <v>0.03711937249990616</v>
       </c>
       <c r="C138">
-        <v>0.07356732633341601</v>
+        <v>0.0849475599621492</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43584</v>
+        <v>42857</v>
       </c>
       <c r="B139">
-        <v>0.1708814422470375</v>
+        <v>0.03354616020374457</v>
       </c>
       <c r="C139">
-        <v>0.07964333339527263</v>
+        <v>0.08627892837038775</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43585</v>
+        <v>42858</v>
       </c>
       <c r="B140">
-        <v>0.1744338997213408</v>
+        <v>0.02978962546612718</v>
       </c>
       <c r="C140">
-        <v>0.07998093712205323</v>
+        <v>0.08399714912029332</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43591</v>
+        <v>42859</v>
       </c>
       <c r="B141">
-        <v>0.1129475506666566</v>
+        <v>0.02731034758896889</v>
       </c>
       <c r="C141">
-        <v>0.06077684843834219</v>
+        <v>0.08325634393824188</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43592</v>
+        <v>42860</v>
       </c>
       <c r="B142">
-        <v>0.1228160663198832</v>
+        <v>0.02129297798617258</v>
       </c>
       <c r="C142">
-        <v>0.06696168077404341</v>
+        <v>0.07844830427611393</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43593</v>
+        <v>42863</v>
       </c>
       <c r="B143">
-        <v>0.1084288751268008</v>
+        <v>0.01476159627973073</v>
       </c>
       <c r="C143">
-        <v>0.06211265962233603</v>
+        <v>0.07429045374004373</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43594</v>
+        <v>42864</v>
       </c>
       <c r="B144">
-        <v>0.09009399814517072</v>
+        <v>0.01292439012607782</v>
       </c>
       <c r="C144">
-        <v>0.05201834828343865</v>
+        <v>0.0779239137092218</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43595</v>
+        <v>42865</v>
       </c>
       <c r="B145">
-        <v>0.1257832346182295</v>
+        <v>0.008716277819094564</v>
       </c>
       <c r="C145">
-        <v>0.06673366323133845</v>
+        <v>0.07468939655013629</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43598</v>
+        <v>42866</v>
       </c>
       <c r="B146">
-        <v>0.1091304579799255</v>
+        <v>0.01377977242463846</v>
       </c>
       <c r="C146">
-        <v>0.06370967855187071</v>
+        <v>0.07524135265572496</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43599</v>
+        <v>42867</v>
       </c>
       <c r="B147">
-        <v>0.1027687723515132</v>
+        <v>0.02155070221743238</v>
       </c>
       <c r="C147">
-        <v>0.06098254769033185</v>
+        <v>0.07539130693652085</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43600</v>
+        <v>42870</v>
       </c>
       <c r="B148">
-        <v>0.1250821812197997</v>
+        <v>0.02533882949565491</v>
       </c>
       <c r="C148">
-        <v>0.07245985308394109</v>
+        <v>0.08007122743292805</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43601</v>
+        <v>42871</v>
       </c>
       <c r="B149">
-        <v>0.1297101097142255</v>
+        <v>0.03330952699821266</v>
       </c>
       <c r="C149">
-        <v>0.07554994338801535</v>
+        <v>0.08568294788680664</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43602</v>
+        <v>42872</v>
       </c>
       <c r="B150">
-        <v>0.1038904655077968</v>
+        <v>0.02820636835370616</v>
       </c>
       <c r="C150">
-        <v>0.06478639742843395</v>
+        <v>0.07595310648614495</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43605</v>
+        <v>42873</v>
       </c>
       <c r="B151">
-        <v>0.09549526550906173</v>
+        <v>0.02500963004858825</v>
       </c>
       <c r="C151">
-        <v>0.05609602629376043</v>
+        <v>0.07387430831162489</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43606</v>
+        <v>42874</v>
       </c>
       <c r="B152">
-        <v>0.1088164241875389</v>
+        <v>0.02653939234704672</v>
       </c>
       <c r="C152">
-        <v>0.05983016487742443</v>
+        <v>0.07898794375563667</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43607</v>
+        <v>42877</v>
       </c>
       <c r="B153">
-        <v>0.1040212012485588</v>
+        <v>0.02853789275690843</v>
       </c>
       <c r="C153">
-        <v>0.05968561599806099</v>
+        <v>0.07912502914920716</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43608</v>
+        <v>42878</v>
       </c>
       <c r="B154">
-        <v>0.0862354977471258</v>
+        <v>0.03203807131189484</v>
       </c>
       <c r="C154">
-        <v>0.05047372827466945</v>
+        <v>0.07635112229885355</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43609</v>
+        <v>42879</v>
       </c>
       <c r="B155">
-        <v>0.08898412481406481</v>
+        <v>0.03205502366239288</v>
       </c>
       <c r="C155">
-        <v>0.04882424059703983</v>
+        <v>0.07957638044053228</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43612</v>
+        <v>42880</v>
       </c>
       <c r="B156">
-        <v>0.1007446748828613</v>
+        <v>0.04877441007822969</v>
       </c>
       <c r="C156">
-        <v>0.05075838671960242</v>
+        <v>0.0881139922661045</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43613</v>
+        <v>42881</v>
       </c>
       <c r="B157">
-        <v>0.1102528747527605</v>
+        <v>0.04737589821286492</v>
       </c>
       <c r="C157">
-        <v>0.0540548573850046</v>
+        <v>0.08761110533800864</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43614</v>
+        <v>42886</v>
       </c>
       <c r="B158">
-        <v>0.1080842200205401</v>
+        <v>0.05086768435036348</v>
       </c>
       <c r="C158">
-        <v>0.05287633645506262</v>
+        <v>0.08672424897167952</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43615</v>
+        <v>42887</v>
       </c>
       <c r="B159">
-        <v>0.1019580874976032</v>
+        <v>0.05221446637662286</v>
       </c>
       <c r="C159">
-        <v>0.05282496371685497</v>
+        <v>0.08253131505837064</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43616</v>
+        <v>42888</v>
       </c>
       <c r="B160">
-        <v>0.09890073902800633</v>
+        <v>0.04918126194952688</v>
       </c>
       <c r="C160">
-        <v>0.05213386508911322</v>
+        <v>0.08652324865148442</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43619</v>
+        <v>42891</v>
       </c>
       <c r="B161">
-        <v>0.09956555355386465</v>
+        <v>0.04443325530393083</v>
       </c>
       <c r="C161">
-        <v>0.05074526242369459</v>
+        <v>0.08493953079980865</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43620</v>
+        <v>42892</v>
       </c>
       <c r="B162">
-        <v>0.09050107600066726</v>
+        <v>0.05098406789061771</v>
       </c>
       <c r="C162">
-        <v>0.04600794939997188</v>
+        <v>0.08707507373894763</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43621</v>
+        <v>42893</v>
       </c>
       <c r="B163">
-        <v>0.09019613596487419</v>
+        <v>0.06208649240773823</v>
       </c>
       <c r="C163">
-        <v>0.04498792307167032</v>
+        <v>0.09348001022301355</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43622</v>
+        <v>42894</v>
       </c>
       <c r="B164">
-        <v>0.08139222514023503</v>
+        <v>0.06943178989797949</v>
       </c>
       <c r="C164">
-        <v>0.04348848444965947</v>
+        <v>0.09686993901935348</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43626</v>
+        <v>42895</v>
       </c>
       <c r="B165">
-        <v>0.09399719681106156</v>
+        <v>0.07358338006472542</v>
       </c>
       <c r="C165">
-        <v>0.05338569041928953</v>
+        <v>0.09817642556246775</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43627</v>
+        <v>42898</v>
       </c>
       <c r="B166">
-        <v>0.1235181789232724</v>
+        <v>0.07324358148826304</v>
       </c>
       <c r="C166">
-        <v>0.06365279383898592</v>
+        <v>0.09270861365541583</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43628</v>
+        <v>42899</v>
       </c>
       <c r="B167">
-        <v>0.115859908955517</v>
+        <v>0.07551467237896659</v>
       </c>
       <c r="C167">
-        <v>0.05841395046754827</v>
+        <v>0.09904115586870499</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43629</v>
+        <v>42900</v>
       </c>
       <c r="B168">
-        <v>0.1143374950385796</v>
+        <v>0.06291443584306577</v>
       </c>
       <c r="C168">
-        <v>0.05934372179523684</v>
+        <v>0.09571985392840099</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43630</v>
+        <v>42901</v>
       </c>
       <c r="B169">
-        <v>0.1060742834261459</v>
+        <v>0.06124047232278373</v>
       </c>
       <c r="C169">
-        <v>0.05533565438773214</v>
+        <v>0.09330789331744693</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43633</v>
+        <v>42902</v>
       </c>
       <c r="B170">
-        <v>0.1061439753445117</v>
+        <v>0.05855753650793205</v>
       </c>
       <c r="C170">
-        <v>0.05503338438116034</v>
+        <v>0.09454337768051846</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43634</v>
+        <v>42905</v>
       </c>
       <c r="B171">
-        <v>0.1096447925405741</v>
+        <v>0.06816473896171393</v>
       </c>
       <c r="C171">
-        <v>0.05911242269497974</v>
+        <v>0.1037449268456117</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43635</v>
+        <v>42906</v>
       </c>
       <c r="B172">
-        <v>0.1228251705339956</v>
+        <v>0.06636809311636704</v>
       </c>
       <c r="C172">
-        <v>0.0673009393916475</v>
+        <v>0.1015282848232879</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43636</v>
+        <v>42907</v>
       </c>
       <c r="B173">
-        <v>0.1534904038611453</v>
+        <v>0.07762293122238861</v>
       </c>
       <c r="C173">
-        <v>0.07781396045938238</v>
+        <v>0.1038499778185922</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43637</v>
+        <v>42908</v>
       </c>
       <c r="B174">
-        <v>0.1549986016440268</v>
+        <v>0.07825214441261252</v>
       </c>
       <c r="C174">
-        <v>0.07910897315791221</v>
+        <v>0.1016609953154985</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43640</v>
+        <v>42909</v>
       </c>
       <c r="B175">
-        <v>0.1570222810950883</v>
+        <v>0.08701398157944884</v>
       </c>
       <c r="C175">
-        <v>0.08080088236277749</v>
+        <v>0.1050797133118595</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43641</v>
+        <v>42912</v>
       </c>
       <c r="B176">
-        <v>0.1462099740359175</v>
+        <v>0.09934434788877633</v>
       </c>
       <c r="C176">
-        <v>0.07856008195031539</v>
+        <v>0.1129466160243608</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43642</v>
+        <v>42913</v>
       </c>
       <c r="B177">
-        <v>0.144332195066722</v>
+        <v>0.1012552603923678</v>
       </c>
       <c r="C177">
-        <v>0.08302851202181238</v>
+        <v>0.1103586571565136</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43643</v>
+        <v>42914</v>
       </c>
       <c r="B178">
-        <v>0.15534337390344</v>
+        <v>0.09358624850729069</v>
       </c>
       <c r="C178">
-        <v>0.09025360235339241</v>
+        <v>0.1081329022252477</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43644</v>
+        <v>42915</v>
       </c>
       <c r="B179">
-        <v>0.1529007410911201</v>
+        <v>0.09974690282662491</v>
       </c>
       <c r="C179">
-        <v>0.08917458065810702</v>
+        <v>0.108254784264282</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43647</v>
+        <v>42916</v>
       </c>
       <c r="B180">
-        <v>0.1828553093276679</v>
+        <v>0.09920848628106671</v>
       </c>
       <c r="C180">
-        <v>0.09818147995495874</v>
+        <v>0.1062047638697661</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43648</v>
+        <v>42919</v>
       </c>
       <c r="B181">
-        <v>0.1833493382204914</v>
+        <v>0.09489909050800471</v>
       </c>
       <c r="C181">
-        <v>0.1025220178475192</v>
+        <v>0.1085930657560048</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43649</v>
+        <v>42920</v>
       </c>
       <c r="B182">
-        <v>0.1716856673897862</v>
+        <v>0.08654462808124586</v>
       </c>
       <c r="C182">
-        <v>0.09896914942205526</v>
+        <v>0.1012385346917193</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43650</v>
+        <v>42921</v>
       </c>
       <c r="B183">
-        <v>0.1662335861643625</v>
+        <v>0.09729714288692359</v>
       </c>
       <c r="C183">
-        <v>0.09546772013138605</v>
+        <v>0.1081506202517146</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43651</v>
+        <v>42922</v>
       </c>
       <c r="B184">
-        <v>0.1717027256156407</v>
+        <v>0.09750978397562937</v>
       </c>
       <c r="C184">
-        <v>0.09865458140105043</v>
+        <v>0.1055552321975497</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43654</v>
+        <v>42923</v>
       </c>
       <c r="B185">
-        <v>0.1472064536650795</v>
+        <v>0.09639738185379909</v>
       </c>
       <c r="C185">
-        <v>0.08922660261767779</v>
+        <v>0.1061135462458898</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43655</v>
+        <v>42926</v>
       </c>
       <c r="B186">
-        <v>0.1445720500387253</v>
+        <v>0.09583749243054074</v>
       </c>
       <c r="C186">
-        <v>0.08823472515882647</v>
+        <v>0.1088288308197842</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43656</v>
+        <v>42927</v>
       </c>
       <c r="B187">
-        <v>0.1428684174596559</v>
+        <v>0.1004791024587424</v>
       </c>
       <c r="C187">
-        <v>0.08984075351118381</v>
+        <v>0.1130657252476341</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43657</v>
+        <v>42928</v>
       </c>
       <c r="B188">
-        <v>0.1424935673266725</v>
+        <v>0.09729630456265959</v>
       </c>
       <c r="C188">
-        <v>0.08937081192932417</v>
+        <v>0.116181991787581</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43658</v>
+        <v>42929</v>
       </c>
       <c r="B189">
-        <v>0.1488935948240853</v>
+        <v>0.1049265322105195</v>
       </c>
       <c r="C189">
-        <v>0.08998709203823818</v>
+        <v>0.1224323818105784</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43661</v>
+        <v>42930</v>
       </c>
       <c r="B190">
-        <v>0.1531237147284921</v>
+        <v>0.1093109139098154</v>
       </c>
       <c r="C190">
-        <v>0.09436576744957348</v>
+        <v>0.1247146955485385</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43662</v>
+        <v>42933</v>
       </c>
       <c r="B191">
-        <v>0.1484183055923298</v>
+        <v>0.0987369510463636</v>
       </c>
       <c r="C191">
-        <v>0.09211072705318357</v>
+        <v>0.114603211225816</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43663</v>
+        <v>42934</v>
       </c>
       <c r="B192">
-        <v>0.1478242285965501</v>
+        <v>0.09966275013763215</v>
       </c>
       <c r="C192">
-        <v>0.0939888225781611</v>
+        <v>0.1181865130481596</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43664</v>
+        <v>42935</v>
       </c>
       <c r="B193">
-        <v>0.1380161461983236</v>
+        <v>0.1165540028038687</v>
       </c>
       <c r="C193">
-        <v>0.08793156741041064</v>
+        <v>0.1267963907983571</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>43665</v>
+        <v>42936</v>
       </c>
       <c r="B194">
-        <v>0.1487779668917268</v>
+        <v>0.1214895290010847</v>
       </c>
       <c r="C194">
-        <v>0.09238533413953487</v>
+        <v>0.129528743947549</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43668</v>
+        <v>42937</v>
       </c>
       <c r="B195">
-        <v>0.1416855549577782</v>
+        <v>0.1162982448710086</v>
       </c>
       <c r="C195">
-        <v>0.08965118213501388</v>
+        <v>0.1283718091579724</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43669</v>
+        <v>42940</v>
       </c>
       <c r="B196">
-        <v>0.1439799801900628</v>
+        <v>0.1203286497410352</v>
       </c>
       <c r="C196">
-        <v>0.09291208957137287</v>
+        <v>0.1326727607712097</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43670</v>
+        <v>42941</v>
       </c>
       <c r="B197">
-        <v>0.1521023293254049</v>
+        <v>0.1138548900204901</v>
       </c>
       <c r="C197">
-        <v>0.09626503958899213</v>
+        <v>0.1332022295484387</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43671</v>
+        <v>42942</v>
       </c>
       <c r="B198">
-        <v>0.1605887998547355</v>
+        <v>0.1099869553643027</v>
       </c>
       <c r="C198">
-        <v>0.09804782608408802</v>
+        <v>0.1338967530686679</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43672</v>
+        <v>42943</v>
       </c>
       <c r="B199">
-        <v>0.16264745757645</v>
+        <v>0.1118126792464584</v>
       </c>
       <c r="C199">
-        <v>0.1003788505685144</v>
+        <v>0.1345402528147861</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43675</v>
+        <v>42944</v>
       </c>
       <c r="B200">
-        <v>0.1614941635173825</v>
+        <v>0.1144447944683218</v>
       </c>
       <c r="C200">
-        <v>0.09902246400326842</v>
+        <v>0.1342077853303669</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43676</v>
+        <v>42947</v>
       </c>
       <c r="B201">
-        <v>0.1658330224020526</v>
+        <v>0.1187556715191072</v>
       </c>
       <c r="C201">
-        <v>0.1007804349648831</v>
+        <v>0.140519813460235</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43677</v>
+        <v>42948</v>
       </c>
       <c r="B202">
-        <v>0.156424085888037</v>
+        <v>0.1274676129278423</v>
       </c>
       <c r="C202">
-        <v>0.09596505356909346</v>
+        <v>0.143383632980997</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43678</v>
+        <v>42949</v>
       </c>
       <c r="B203">
-        <v>0.1478316716438883</v>
+        <v>0.1249074771428078</v>
       </c>
       <c r="C203">
-        <v>0.09259565802153946</v>
+        <v>0.1429021094015981</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43679</v>
+        <v>42950</v>
       </c>
       <c r="B204">
-        <v>0.1327631957771489</v>
+        <v>0.1160332807696478</v>
       </c>
       <c r="C204">
-        <v>0.08795392478047237</v>
+        <v>0.1400795025421671</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43682</v>
+        <v>42951</v>
       </c>
       <c r="B205">
-        <v>0.1134166163961607</v>
+        <v>0.1106041214670956</v>
       </c>
       <c r="C205">
-        <v>0.07545325018310911</v>
+        <v>0.1378437178437248</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43683</v>
+        <v>42954</v>
       </c>
       <c r="B206">
-        <v>0.1027759232228793</v>
+        <v>0.115734147882397</v>
       </c>
       <c r="C206">
-        <v>0.07642383463568181</v>
+        <v>0.1441840005339026</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43684</v>
+        <v>42955</v>
       </c>
       <c r="B207">
-        <v>0.09874398134434936</v>
+        <v>0.1171342683370757</v>
       </c>
       <c r="C207">
-        <v>0.07998536659918787</v>
+        <v>0.1442830330523452</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43685</v>
+        <v>42956</v>
       </c>
       <c r="B208">
-        <v>0.1118486879585689</v>
+        <v>0.1167884631062723</v>
       </c>
       <c r="C208">
-        <v>0.08963856135949033</v>
+        <v>0.1435025539186217</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43686</v>
+        <v>42957</v>
       </c>
       <c r="B209">
-        <v>0.1021751040110981</v>
+        <v>0.112732856138035</v>
       </c>
       <c r="C209">
-        <v>0.08849739510722432</v>
+        <v>0.1296630551558384</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>43689</v>
+        <v>42958</v>
       </c>
       <c r="B210">
-        <v>0.1201152641073191</v>
+        <v>0.09431054904424974</v>
       </c>
       <c r="C210">
-        <v>0.09473068700033282</v>
+        <v>0.1165093903292727</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43690</v>
+        <v>42961</v>
       </c>
       <c r="B211">
-        <v>0.1110915830970043</v>
+        <v>0.1071836963890433</v>
       </c>
       <c r="C211">
-        <v>0.09136871102526545</v>
+        <v>0.130401014884882</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43691</v>
+        <v>42962</v>
       </c>
       <c r="B212">
-        <v>0.1156944669667841</v>
+        <v>0.1102891896403544</v>
       </c>
       <c r="C212">
-        <v>0.09413123172747029</v>
+        <v>0.1318902080198001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>43692</v>
+        <v>42963</v>
       </c>
       <c r="B213">
-        <v>0.1189090198389813</v>
+        <v>0.1090202171277248</v>
       </c>
       <c r="C213">
-        <v>0.09686226598745518</v>
+        <v>0.1350322458224926</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43693</v>
+        <v>42964</v>
       </c>
       <c r="B214">
-        <v>0.1234251465552847</v>
+        <v>0.1143507932527081</v>
       </c>
       <c r="C214">
-        <v>0.1023156934825025</v>
+        <v>0.130043345221091</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43696</v>
+        <v>42965</v>
       </c>
       <c r="B215">
-        <v>0.1454068001363673</v>
+        <v>0.1152558185136054</v>
       </c>
       <c r="C215">
-        <v>0.1131191958906894</v>
+        <v>0.1272615375704811</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43697</v>
+        <v>42968</v>
       </c>
       <c r="B216">
-        <v>0.1444955197464379</v>
+        <v>0.1196211499237954</v>
       </c>
       <c r="C216">
-        <v>0.1121211337791439</v>
+        <v>0.1310476667099687</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43698</v>
+        <v>42969</v>
       </c>
       <c r="B217">
-        <v>0.1428436432232953</v>
+        <v>0.1226168091820541</v>
       </c>
       <c r="C217">
-        <v>0.1130254533863115</v>
+        <v>0.1357837254942533</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43699</v>
+        <v>42970</v>
       </c>
       <c r="B218">
-        <v>0.1460030930917902</v>
+        <v>0.12363863786117</v>
       </c>
       <c r="C218">
-        <v>0.1121854427049642</v>
+        <v>0.1329954141087233</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43700</v>
+        <v>42971</v>
       </c>
       <c r="B219">
-        <v>0.1534333741399911</v>
+        <v>0.1178139654891646</v>
       </c>
       <c r="C219">
-        <v>0.1183530077205466</v>
+        <v>0.1291963958625264</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43703</v>
+        <v>42972</v>
       </c>
       <c r="B220">
-        <v>0.1385718716433326</v>
+        <v>0.1342202991765391</v>
       </c>
       <c r="C220">
-        <v>0.1127026574656853</v>
+        <v>0.1389280785978171</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43704</v>
+        <v>42975</v>
       </c>
       <c r="B221">
-        <v>0.1524532615588765</v>
+        <v>0.1468184118566316</v>
       </c>
       <c r="C221">
-        <v>0.1174456028870194</v>
+        <v>0.1423953875352004</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43705</v>
+        <v>42976</v>
       </c>
       <c r="B222">
-        <v>0.148540358813033</v>
+        <v>0.1446040714383756</v>
       </c>
       <c r="C222">
-        <v>0.1154127750642437</v>
+        <v>0.1405039962622661</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43706</v>
+        <v>42977</v>
       </c>
       <c r="B223">
-        <v>0.1451961109320687</v>
+        <v>0.1445282401123036</v>
       </c>
       <c r="C223">
-        <v>0.117763546740087</v>
+        <v>0.1446691017601121</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43707</v>
+        <v>42978</v>
       </c>
       <c r="B224">
-        <v>0.1476944060737011</v>
+        <v>0.1412536299437444</v>
       </c>
       <c r="C224">
-        <v>0.1194536839174429</v>
+        <v>0.1457803626493317</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43710</v>
+        <v>42979</v>
       </c>
       <c r="B225">
-        <v>0.16093408800678</v>
+        <v>0.1435292122383605</v>
       </c>
       <c r="C225">
-        <v>0.1237040898228978</v>
+        <v>0.1479636154407329</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43711</v>
+        <v>42982</v>
       </c>
       <c r="B226">
-        <v>0.1623377698143205</v>
+        <v>0.1475937461692016</v>
       </c>
       <c r="C226">
-        <v>0.1193381453187672</v>
+        <v>0.1481821336415901</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43712</v>
+        <v>42983</v>
       </c>
       <c r="B227">
-        <v>0.1711524260503781</v>
+        <v>0.150633493514039</v>
       </c>
       <c r="C227">
-        <v>0.1242175440558964</v>
+        <v>0.1411486739837444</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43713</v>
+        <v>42984</v>
       </c>
       <c r="B228">
-        <v>0.1819475109346338</v>
+        <v>0.1486095368898892</v>
       </c>
       <c r="C228">
-        <v>0.1282566003070502</v>
+        <v>0.141730934889877</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>43714</v>
+        <v>42985</v>
       </c>
       <c r="B229">
-        <v>0.1883243649728237</v>
+        <v>0.1434154484206456</v>
       </c>
       <c r="C229">
-        <v>0.1284410868257095</v>
+        <v>0.1380045762855551</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43717</v>
+        <v>42986</v>
       </c>
       <c r="B230">
-        <v>0.1949927974701908</v>
+        <v>0.1424750134967656</v>
       </c>
       <c r="C230">
-        <v>0.131056886146889</v>
+        <v>0.1368888915502373</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43718</v>
+        <v>42989</v>
       </c>
       <c r="B231">
-        <v>0.1912719517958521</v>
+        <v>0.1424446101184644</v>
       </c>
       <c r="C231">
-        <v>0.1283825703992889</v>
+        <v>0.1455916910851389</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43719</v>
+        <v>42990</v>
       </c>
       <c r="B232">
-        <v>0.1833509446497932</v>
+        <v>0.145752090542085</v>
       </c>
       <c r="C232">
-        <v>0.1264223672442648</v>
+        <v>0.1505537894897728</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43720</v>
+        <v>42991</v>
       </c>
       <c r="B233">
-        <v>0.194762967708481</v>
+        <v>0.1470045619164486</v>
       </c>
       <c r="C233">
-        <v>0.1290585759794751</v>
+        <v>0.1530050978738107</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43724</v>
+        <v>42992</v>
       </c>
       <c r="B234">
-        <v>0.1907975374532398</v>
+        <v>0.1436660835752674</v>
       </c>
       <c r="C234">
-        <v>0.1309452357701884</v>
+        <v>0.1515022740079988</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43725</v>
+        <v>42993</v>
       </c>
       <c r="B235">
-        <v>0.1728023062726192</v>
+        <v>0.1440623966329178</v>
       </c>
       <c r="C235">
-        <v>0.1258461600194252</v>
+        <v>0.1505740250149692</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43726</v>
+        <v>42996</v>
       </c>
       <c r="B236">
-        <v>0.1778795090990104</v>
+        <v>0.147262396338216</v>
       </c>
       <c r="C236">
-        <v>0.1301828512950294</v>
+        <v>0.155963842090193</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43727</v>
+        <v>42997</v>
       </c>
       <c r="B237">
-        <v>0.1817447703158284</v>
+        <v>0.1443017465126322</v>
       </c>
       <c r="C237">
-        <v>0.1305056770254842</v>
+        <v>0.1550143672172362</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43728</v>
+        <v>42998</v>
       </c>
       <c r="B238">
-        <v>0.184783407967728</v>
+        <v>0.1470752656949825</v>
       </c>
       <c r="C238">
-        <v>0.1325306379068036</v>
+        <v>0.1600975849038049</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43731</v>
+        <v>42999</v>
       </c>
       <c r="B239">
-        <v>0.1726216797955891</v>
+        <v>0.1458512910461005</v>
       </c>
       <c r="C239">
-        <v>0.1267580367088754</v>
+        <v>0.1577791511766131</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43732</v>
+        <v>43000</v>
       </c>
       <c r="B240">
-        <v>0.1754385589950178</v>
+        <v>0.1458330028463211</v>
       </c>
       <c r="C240">
-        <v>0.1274238854687302</v>
+        <v>0.1546818477161884</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43733</v>
+        <v>43003</v>
       </c>
       <c r="B241">
-        <v>0.1672637645755046</v>
+        <v>0.1405751508860662</v>
       </c>
       <c r="C241">
-        <v>0.1269248619600789</v>
+        <v>0.1478421606129339</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>43734</v>
+        <v>43004</v>
       </c>
       <c r="B242">
-        <v>0.1591452995899032</v>
+        <v>0.1413945957533898</v>
       </c>
       <c r="C242">
-        <v>0.1237231064951854</v>
+        <v>0.1504434034425153</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>43735</v>
+        <v>43005</v>
       </c>
       <c r="B243">
-        <v>0.1622382333466457</v>
+        <v>0.1414871975991885</v>
       </c>
       <c r="C243">
-        <v>0.1206922130651269</v>
+        <v>0.1565085382760036</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43738</v>
+        <v>43006</v>
       </c>
       <c r="B244">
-        <v>0.151931770808561</v>
+        <v>0.1418670423502626</v>
       </c>
       <c r="C244">
-        <v>0.1217110241679134</v>
+        <v>0.1559083193633326</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43746</v>
+        <v>43007</v>
       </c>
       <c r="B245">
-        <v>0.1583448262513292</v>
+        <v>0.1456489444970244</v>
       </c>
       <c r="C245">
-        <v>0.1247927508766631</v>
+        <v>0.1613973452599375</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43747</v>
+        <v>43017</v>
       </c>
       <c r="B246">
-        <v>0.1598997967625386</v>
+        <v>0.1580332443997452</v>
       </c>
       <c r="C246">
-        <v>0.1250200331761875</v>
+        <v>0.1794258672408018</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43748</v>
+        <v>43018</v>
       </c>
       <c r="B247">
-        <v>0.1684137464870492</v>
+        <v>0.1600718176104641</v>
       </c>
       <c r="C247">
-        <v>0.1336159716057355</v>
+        <v>0.1808533038524232</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>43749</v>
+        <v>43019</v>
       </c>
       <c r="B248">
-        <v>0.1784427092643981</v>
+        <v>0.1635290793930126</v>
       </c>
       <c r="C248">
-        <v>0.1391036405108401</v>
+        <v>0.1753878277014522</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>43752</v>
+        <v>43020</v>
       </c>
       <c r="B249">
-        <v>0.1896632857672058</v>
+        <v>0.166266800382262</v>
       </c>
       <c r="C249">
-        <v>0.1412125588321571</v>
+        <v>0.1759090695318544</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>43753</v>
+        <v>43021</v>
       </c>
       <c r="B250">
-        <v>0.1850474413885195</v>
+        <v>0.1684208555467059</v>
       </c>
       <c r="C250">
-        <v>0.1449112712070921</v>
+        <v>0.178582060867291</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>43754</v>
+        <v>43024</v>
       </c>
       <c r="B251">
-        <v>0.1813737331137721</v>
+        <v>0.1663195312537018</v>
       </c>
       <c r="C251">
-        <v>0.1469375066140417</v>
+        <v>0.1789360900916126</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>43755</v>
+        <v>43025</v>
       </c>
       <c r="B252">
-        <v>0.1820826435019567</v>
+        <v>0.1661120811668988</v>
       </c>
       <c r="C252">
-        <v>0.146855518374565</v>
+        <v>0.1793606854112479</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>43756</v>
+        <v>43026</v>
       </c>
       <c r="B253">
-        <v>0.1669351135348258</v>
+        <v>0.1744524250352195</v>
       </c>
       <c r="C253">
-        <v>0.1421785743014345</v>
+        <v>0.1809217687842781</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>43759</v>
+        <v>43027</v>
       </c>
       <c r="B254">
-        <v>0.1700220328660071</v>
+        <v>0.1710393667617889</v>
       </c>
       <c r="C254">
-        <v>0.1404244851772225</v>
+        <v>0.1736602056123855</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>43760</v>
+        <v>43028</v>
       </c>
       <c r="B255">
-        <v>0.1740453000791868</v>
+        <v>0.1698881567153934</v>
       </c>
       <c r="C255">
-        <v>0.1421837574871738</v>
+        <v>0.1810162238922814</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>43761</v>
+        <v>43031</v>
       </c>
       <c r="B256">
-        <v>0.1673200426465464</v>
+        <v>0.1709810778319245</v>
       </c>
       <c r="C256">
-        <v>0.1368414030625784</v>
+        <v>0.1799181448874547</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>43762</v>
+        <v>43032</v>
       </c>
       <c r="B257">
-        <v>0.167203736363235</v>
+        <v>0.1786644613519484</v>
       </c>
       <c r="C257">
-        <v>0.1376355662477811</v>
+        <v>0.1803387043279649</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>43763</v>
+        <v>43033</v>
       </c>
       <c r="B258">
-        <v>0.1742903287225299</v>
+        <v>0.1832933420083223</v>
       </c>
       <c r="C258">
-        <v>0.1398810053872315</v>
+        <v>0.1828823824952974</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>43766</v>
+        <v>43034</v>
       </c>
       <c r="B259">
-        <v>0.1822963516387603</v>
+        <v>0.1876871326634411</v>
       </c>
       <c r="C259">
-        <v>0.1461062610564685</v>
+        <v>0.1831335878136964</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>43767</v>
+        <v>43035</v>
       </c>
       <c r="B260">
-        <v>0.1777891780305176</v>
+        <v>0.195210333635655</v>
       </c>
       <c r="C260">
-        <v>0.1446078183504524</v>
+        <v>0.1905040524672632</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>43768</v>
+        <v>43038</v>
       </c>
       <c r="B261">
-        <v>0.1725338116207695</v>
+        <v>0.1917216504638037</v>
       </c>
       <c r="C261">
-        <v>0.1392641858246531</v>
+        <v>0.1845356334765207</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>43769</v>
+        <v>43039</v>
       </c>
       <c r="B262">
-        <v>0.1712852820901272</v>
+        <v>0.1908367909218225</v>
       </c>
       <c r="C262">
-        <v>0.1410143779767619</v>
+        <v>0.1841300322738393</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>43770</v>
+        <v>43040</v>
       </c>
       <c r="B263">
-        <v>0.1891160267957912</v>
+        <v>0.1881904177728562</v>
       </c>
       <c r="C263">
-        <v>0.1472673018551682</v>
+        <v>0.1872007303191596</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>43773</v>
+        <v>43041</v>
       </c>
       <c r="B264">
-        <v>0.196110569556726</v>
+        <v>0.1883372781417429</v>
       </c>
       <c r="C264">
-        <v>0.1546618214728421</v>
+        <v>0.1835834981646203</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>43774</v>
+        <v>43042</v>
       </c>
       <c r="B265">
-        <v>0.2028489187183506</v>
+        <v>0.1871395495993342</v>
       </c>
       <c r="C265">
-        <v>0.1573552256646402</v>
+        <v>0.1825593052608443</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>43775</v>
+        <v>43045</v>
       </c>
       <c r="B266">
-        <v>0.198090495184325</v>
+        <v>0.194732790289698</v>
       </c>
       <c r="C266">
-        <v>0.1543098040053845</v>
+        <v>0.1881428658342099</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>43776</v>
+        <v>43046</v>
       </c>
       <c r="B267">
-        <v>0.2000357566638971</v>
+        <v>0.2036071966033728</v>
       </c>
       <c r="C267">
-        <v>0.1585863449186899</v>
+        <v>0.1949192776045101</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B268">
+        <v>0.2018942166366156</v>
+      </c>
+      <c r="C268">
+        <v>0.1950446747303456</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B269">
+        <v>0.2093219678961769</v>
+      </c>
+      <c r="C269">
+        <v>0.1997051905597578</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B270">
+        <v>0.2189231585994691</v>
+      </c>
+      <c r="C270">
+        <v>0.2009578272289365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B271">
+        <v>0.2231240956203506</v>
+      </c>
+      <c r="C271">
+        <v>0.2041276878596512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B272">
+        <v>0.2153073345721646</v>
+      </c>
+      <c r="C272">
+        <v>0.201004577949355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B273">
+        <v>0.2084153967676901</v>
+      </c>
+      <c r="C273">
+        <v>0.191027808032485</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B274">
+        <v>0.2167698771843185</v>
+      </c>
+      <c r="C274">
+        <v>0.1977775119683487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B275">
+        <v>0.2210162714841704</v>
+      </c>
+      <c r="C275">
+        <v>0.1943924951769089</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B276">
+        <v>0.2271467566200311</v>
+      </c>
+      <c r="C276">
+        <v>0.1980070216218033</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B277">
+        <v>0.2467835702981556</v>
+      </c>
+      <c r="C277">
+        <v>0.2115543214978399</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B278">
+        <v>0.2492568695656892</v>
+      </c>
+      <c r="C278">
+        <v>0.2126773405981319</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B279">
+        <v>0.2157682464931563</v>
+      </c>
+      <c r="C279">
+        <v>0.1986569522531521</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B280">
+        <v>0.216258448121291</v>
+      </c>
+      <c r="C280">
+        <v>0.1977408462094308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B281">
+        <v>0.2018266746349082</v>
+      </c>
+      <c r="C281">
+        <v>0.1918267943566128</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B282">
+        <v>0.2033555964506364</v>
+      </c>
+      <c r="C282">
+        <v>0.1989184595701048</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B283">
+        <v>0.2028111011184337</v>
+      </c>
+      <c r="C283">
+        <v>0.1992983540620878</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B284">
+        <v>0.1901239598966584</v>
+      </c>
+      <c r="C284">
+        <v>0.1937716146339259</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B285">
+        <v>0.1880488063333159</v>
+      </c>
+      <c r="C285">
+        <v>0.1944547166177317</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B286">
+        <v>0.1936725480320567</v>
+      </c>
+      <c r="C286">
+        <v>0.1950475234302005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B287">
+        <v>0.1994469159978582</v>
+      </c>
+      <c r="C287">
+        <v>0.1859980932945622</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B288">
+        <v>0.1929770504644315</v>
+      </c>
+      <c r="C288">
+        <v>0.1796069891561547</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B289">
+        <v>0.1810400247200699</v>
+      </c>
+      <c r="C289">
+        <v>0.1759495584823261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B290">
+        <v>0.1896948659937603</v>
+      </c>
+      <c r="C290">
+        <v>0.1860222466723462</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B291">
+        <v>0.2073364510341331</v>
+      </c>
+      <c r="C291">
+        <v>0.1975737479680724</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B292">
+        <v>0.1930217437509534</v>
+      </c>
+      <c r="C292">
+        <v>0.1895452522044623</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B293">
+        <v>0.2021155363851079</v>
+      </c>
+      <c r="C293">
+        <v>0.1993487355681756</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B294">
+        <v>0.1957407612665063</v>
+      </c>
+      <c r="C294">
+        <v>0.1956599795340019</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B295">
+        <v>0.183665188329061</v>
+      </c>
+      <c r="C295">
+        <v>0.1874346452471585</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B296">
+        <v>0.1849247231986357</v>
+      </c>
+      <c r="C296">
+        <v>0.1892383819845433</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B297">
+        <v>0.1983046767983636</v>
+      </c>
+      <c r="C297">
+        <v>0.1966280364961372</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B298">
+        <v>0.1969861254085892</v>
+      </c>
+      <c r="C298">
+        <v>0.1930556892620967</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B299">
+        <v>0.2069709801408166</v>
+      </c>
+      <c r="C299">
+        <v>0.1976462572882351</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B300">
+        <v>0.2034682826588998</v>
+      </c>
+      <c r="C300">
+        <v>0.1991682356574098</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B301">
+        <v>0.199992136442694</v>
+      </c>
+      <c r="C301">
+        <v>0.1954381153470615</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B302">
+        <v>0.2032056552744201</v>
+      </c>
+      <c r="C302">
+        <v>0.1973092568430428</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B303">
+        <v>0.1865064894304951</v>
+      </c>
+      <c r="C303">
+        <v>0.1891136115852972</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B304">
+        <v>0.1938767352947177</v>
+      </c>
+      <c r="C304">
+        <v>0.1955894690317732</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B305">
+        <v>0.1971280113045299</v>
+      </c>
+      <c r="C305">
+        <v>0.1982907368202749</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B306">
+        <v>0.2123374697926406</v>
+      </c>
+      <c r="C306">
+        <v>0.2122412647037268</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B307">
+        <v>0.2187424750289206</v>
+      </c>
+      <c r="C307">
+        <v>0.2163336565937097</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B308">
+        <v>0.2233644937708017</v>
+      </c>
+      <c r="C308">
+        <v>0.2231034004962862</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B309">
+        <v>0.2260552665865241</v>
+      </c>
+      <c r="C309">
+        <v>0.2250030583550273</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B310">
+        <v>0.2318378254365616</v>
+      </c>
+      <c r="C310">
+        <v>0.2278134504881373</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B311">
+        <v>0.2396366217659707</v>
+      </c>
+      <c r="C311">
+        <v>0.2327191151215469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B312">
+        <v>0.2445544260358461</v>
+      </c>
+      <c r="C312">
+        <v>0.2356763259389061</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B313">
+        <v>0.2438326359675667</v>
+      </c>
+      <c r="C313">
+        <v>0.2379274870426709</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B314">
+        <v>0.2490050872805223</v>
+      </c>
+      <c r="C314">
+        <v>0.2417925597201098</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B315">
+        <v>0.2490491612954284</v>
+      </c>
+      <c r="C315">
+        <v>0.2282188097443334</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B316">
+        <v>0.2578819369928589</v>
+      </c>
+      <c r="C316">
+        <v>0.2355738273782049</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B317">
+        <v>0.2551375954500961</v>
+      </c>
+      <c r="C317">
+        <v>0.2367818800515329</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B318">
+        <v>0.2612862769203446</v>
+      </c>
+      <c r="C318">
+        <v>0.2413500609117942</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B319">
+        <v>0.2649991316238642</v>
+      </c>
+      <c r="C319">
+        <v>0.2418832135231335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B320">
+        <v>0.2786775800880146</v>
+      </c>
+      <c r="C320">
+        <v>0.2508514126025987</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B321">
+        <v>0.2909169700625063</v>
+      </c>
+      <c r="C321">
+        <v>0.2604958122873862</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B322">
+        <v>0.2928666880537665</v>
+      </c>
+      <c r="C322">
+        <v>0.261626900469156</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B323">
+        <v>0.2863119463369903</v>
+      </c>
+      <c r="C323">
+        <v>0.2535413362459673</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B324">
+        <v>0.290670957611179</v>
+      </c>
+      <c r="C324">
+        <v>0.2612682894927887</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B325">
+        <v>0.269689815394051</v>
+      </c>
+      <c r="C325">
+        <v>0.2478384100615179</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B326">
+        <v>0.2575146218513027</v>
+      </c>
+      <c r="C326">
+        <v>0.238366295214357</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B327">
+        <v>0.2628226964506635</v>
+      </c>
+      <c r="C327">
+        <v>0.2388800735839136</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B328">
+        <v>0.2549184712670827</v>
+      </c>
+      <c r="C328">
+        <v>0.2224212678921813</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B329">
+        <v>0.2616993111571384</v>
+      </c>
+      <c r="C329">
+        <v>0.2175534473069045</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B330">
+        <v>0.2625123275236134</v>
+      </c>
+      <c r="C330">
+        <v>0.2046547042825937</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B331">
+        <v>0.2293064338981563</v>
+      </c>
+      <c r="C331">
+        <v>0.1679825682829315</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B332">
+        <v>0.2031393090894311</v>
+      </c>
+      <c r="C332">
+        <v>0.1552404346158212</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B333">
+        <v>0.1929094594625453</v>
+      </c>
+      <c r="C333">
+        <v>0.1490354369940035</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B334">
+        <v>0.1470559756787027</v>
+      </c>
+      <c r="C334">
+        <v>0.1240042206773933</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B335">
+        <v>0.160469339806028</v>
+      </c>
+      <c r="C335">
+        <v>0.1324720185885115</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B336">
+        <v>0.1727037939262126</v>
+      </c>
+      <c r="C336">
+        <v>0.1449627163376828</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B337">
+        <v>0.181163120583822</v>
+      </c>
+      <c r="C337">
+        <v>0.1617485507100886</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B338">
+        <v>0.2042385578703012</v>
+      </c>
+      <c r="C338">
+        <v>0.1802426585530477</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B339">
+        <v>0.2091810433588159</v>
+      </c>
+      <c r="C339">
+        <v>0.1891685021225704</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B340">
+        <v>0.2219886758307212</v>
+      </c>
+      <c r="C340">
+        <v>0.2020498809269706</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B341">
+        <v>0.2062556833758697</v>
+      </c>
+      <c r="C341">
+        <v>0.189930161312533</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B342">
+        <v>0.1969022997845544</v>
+      </c>
+      <c r="C342">
+        <v>0.180611949934911</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B343">
+        <v>0.2037587529962728</v>
+      </c>
+      <c r="C343">
+        <v>0.1838869144462436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B344">
+        <v>0.1950369976062802</v>
+      </c>
+      <c r="C344">
+        <v>0.1771539140796892</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B345">
+        <v>0.1954730635348136</v>
+      </c>
+      <c r="C345">
+        <v>0.1748955429977277</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B346">
+        <v>0.2084878456696762</v>
+      </c>
+      <c r="C346">
+        <v>0.1880498185921387</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B347">
+        <v>0.2005227140138255</v>
+      </c>
+      <c r="C347">
+        <v>0.1794879535747174</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B348">
+        <v>0.2115565004086315</v>
+      </c>
+      <c r="C348">
+        <v>0.1894363673891677</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B349">
+        <v>0.2199387680363658</v>
+      </c>
+      <c r="C349">
+        <v>0.2049743309137182</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B350">
+        <v>0.2250351563354485</v>
+      </c>
+      <c r="C350">
+        <v>0.2145532259451872</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B351">
+        <v>0.2153155468890677</v>
+      </c>
+      <c r="C351">
+        <v>0.2074842367332776</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B352">
+        <v>0.2105120547503314</v>
+      </c>
+      <c r="C352">
+        <v>0.2000430656805778</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B353">
+        <v>0.2166436334248687</v>
+      </c>
+      <c r="C353">
+        <v>0.2012689278915873</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B354">
+        <v>0.2060388863206224</v>
+      </c>
+      <c r="C354">
+        <v>0.1989428989032065</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B355">
+        <v>0.2108675643852584</v>
+      </c>
+      <c r="C355">
+        <v>0.195949281889263</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B356">
+        <v>0.2118576897958666</v>
+      </c>
+      <c r="C356">
+        <v>0.1973329639846104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B357">
+        <v>0.207485147129278</v>
+      </c>
+      <c r="C357">
+        <v>0.1935831239580952</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B358">
+        <v>0.1967086170763053</v>
+      </c>
+      <c r="C358">
+        <v>0.1776725324816257</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B359">
+        <v>0.1661196123187569</v>
+      </c>
+      <c r="C359">
+        <v>0.143469045167391</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B360">
+        <v>0.1594512188694071</v>
+      </c>
+      <c r="C360">
+        <v>0.1554680919687157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B361">
+        <v>0.1684291070992334</v>
+      </c>
+      <c r="C361">
+        <v>0.157452904428298</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B362">
+        <v>0.14951603290084</v>
+      </c>
+      <c r="C362">
+        <v>0.1418083798248224</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B363">
+        <v>0.1633601224186023</v>
+      </c>
+      <c r="C363">
+        <v>0.1547506890504469</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B364">
+        <v>0.1646090654498304</v>
+      </c>
+      <c r="C364">
+        <v>0.1585535314157935</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B365">
+        <v>0.1615685741143598</v>
+      </c>
+      <c r="C365">
+        <v>0.1474345048780821</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B366">
+        <v>0.1550726181256183</v>
+      </c>
+      <c r="C366">
+        <v>0.1504263004542568</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B367">
+        <v>0.153124030969763</v>
+      </c>
+      <c r="C367">
+        <v>0.1459439015308357</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B368">
+        <v>0.1528784683226991</v>
+      </c>
+      <c r="C368">
+        <v>0.1529233852797391</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B369">
+        <v>0.1729144803871456</v>
+      </c>
+      <c r="C369">
+        <v>0.1690679231436503</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B370">
+        <v>0.1759158019233988</v>
+      </c>
+      <c r="C370">
+        <v>0.1684937228993957</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B371">
+        <v>0.1653020973988453</v>
+      </c>
+      <c r="C371">
+        <v>0.1668315840165446</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B372">
+        <v>0.1579598859322326</v>
+      </c>
+      <c r="C372">
+        <v>0.1644245323507176</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B373">
+        <v>0.1413040201584062</v>
+      </c>
+      <c r="C373">
+        <v>0.1574284289316201</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B374">
+        <v>0.1251868836296777</v>
+      </c>
+      <c r="C374">
+        <v>0.1506490003888701</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B375">
+        <v>0.1307053421638502</v>
+      </c>
+      <c r="C375">
+        <v>0.1575996087567486</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B376">
+        <v>0.1430775282160623</v>
+      </c>
+      <c r="C376">
+        <v>0.1647714061348651</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B377">
+        <v>0.1293388522058896</v>
+      </c>
+      <c r="C377">
+        <v>0.1517914663098374</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B378">
+        <v>0.1307609898710229</v>
+      </c>
+      <c r="C378">
+        <v>0.1499944964945963</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B379">
+        <v>0.1515443229894262</v>
+      </c>
+      <c r="C379">
+        <v>0.1599725457224326</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B380">
+        <v>0.1475468456997757</v>
+      </c>
+      <c r="C380">
+        <v>0.1537963605758443</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B381">
+        <v>0.1277445884500981</v>
+      </c>
+      <c r="C381">
+        <v>0.149531597835302</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B382">
+        <v>0.1280544712506537</v>
+      </c>
+      <c r="C382">
+        <v>0.154899116596938</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B383">
+        <v>0.1298848678238242</v>
+      </c>
+      <c r="C383">
+        <v>0.1585383477942608</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B384">
+        <v>0.1378296009433373</v>
+      </c>
+      <c r="C384">
+        <v>0.1566495511971067</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B385">
+        <v>0.1328940341936571</v>
+      </c>
+      <c r="C385">
+        <v>0.1537488181563815</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B386">
+        <v>0.1489721545361162</v>
+      </c>
+      <c r="C386">
+        <v>0.1625337751182008</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B387">
+        <v>0.1609038598144872</v>
+      </c>
+      <c r="C387">
+        <v>0.1713454830137855</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B388">
+        <v>0.1589054945166286</v>
+      </c>
+      <c r="C388">
+        <v>0.1766458259282135</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B389">
+        <v>0.1646461067416496</v>
+      </c>
+      <c r="C389">
+        <v>0.1852579691903025</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B390">
+        <v>0.1591966202920707</v>
+      </c>
+      <c r="C390">
+        <v>0.1848707472057332</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B391">
+        <v>0.1690278125783728</v>
+      </c>
+      <c r="C391">
+        <v>0.1892289585643376</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B392">
+        <v>0.1729653306830636</v>
+      </c>
+      <c r="C392">
+        <v>0.1860021455692731</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B393">
+        <v>0.1645144847110978</v>
+      </c>
+      <c r="C393">
+        <v>0.1880503300046217</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B394">
+        <v>0.1567527348751452</v>
+      </c>
+      <c r="C394">
+        <v>0.1832409121648242</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B395">
+        <v>0.1672618844272389</v>
+      </c>
+      <c r="C395">
+        <v>0.1870446362890201</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B396">
+        <v>0.172207758745281</v>
+      </c>
+      <c r="C396">
+        <v>0.196696168641993</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B397">
+        <v>0.1682349916983126</v>
+      </c>
+      <c r="C397">
+        <v>0.1952044137143216</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B398">
+        <v>0.1544029718124265</v>
+      </c>
+      <c r="C398">
+        <v>0.1839000624957594</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B399">
+        <v>0.1470874175548682</v>
+      </c>
+      <c r="C399">
+        <v>0.1832466042441967</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B400">
+        <v>0.1442764555079126</v>
+      </c>
+      <c r="C400">
+        <v>0.1788088623458617</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B401">
+        <v>0.1489013664076295</v>
+      </c>
+      <c r="C401">
+        <v>0.1817176138081147</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B402">
+        <v>0.1410209169355212</v>
+      </c>
+      <c r="C402">
+        <v>0.1716400995549838</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B403">
+        <v>0.1192796624840917</v>
+      </c>
+      <c r="C403">
+        <v>0.1642809891620469</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B404">
+        <v>0.1406420102244079</v>
+      </c>
+      <c r="C404">
+        <v>0.1729600419401838</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B405">
+        <v>0.1320375963311959</v>
+      </c>
+      <c r="C405">
+        <v>0.1725627092184328</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B406">
+        <v>0.1420166852738936</v>
+      </c>
+      <c r="C406">
+        <v>0.1836054733610868</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B407">
+        <v>0.1521491369824193</v>
+      </c>
+      <c r="C407">
+        <v>0.1897273623274218</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B408">
+        <v>0.1499773013344481</v>
+      </c>
+      <c r="C408">
+        <v>0.193055530511189</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B409">
+        <v>0.148247606496112</v>
+      </c>
+      <c r="C409">
+        <v>0.1939180374236842</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B410">
+        <v>0.1344099402328069</v>
+      </c>
+      <c r="C410">
+        <v>0.1843804809059042</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B411">
+        <v>0.1345574775560123</v>
+      </c>
+      <c r="C411">
+        <v>0.1856898698517448</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B412">
+        <v>0.1469474367044719</v>
+      </c>
+      <c r="C412">
+        <v>0.1916653514262203</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B413">
+        <v>0.1368022227029875</v>
+      </c>
+      <c r="C413">
+        <v>0.1816252833882455</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B414">
+        <v>0.1328133443485078</v>
+      </c>
+      <c r="C414">
+        <v>0.1754303918778612</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B415">
+        <v>0.1275188487616352</v>
+      </c>
+      <c r="C415">
+        <v>0.1730941046308381</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B416">
+        <v>0.09188667773257153</v>
+      </c>
+      <c r="C416">
+        <v>0.1412569255386744</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B417">
+        <v>0.09578597216386964</v>
+      </c>
+      <c r="C417">
+        <v>0.1513730938197169</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B418">
+        <v>0.08430144995081812</v>
+      </c>
+      <c r="C418">
+        <v>0.1397687816711268</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B419">
+        <v>0.08869425818056187</v>
+      </c>
+      <c r="C419">
+        <v>0.1455091617584536</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B420">
+        <v>0.07560813776898789</v>
+      </c>
+      <c r="C420">
+        <v>0.1329701873698266</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B421">
+        <v>0.06763783443918703</v>
+      </c>
+      <c r="C421">
+        <v>0.1355314052144216</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B422">
+        <v>0.04810843396623654</v>
+      </c>
+      <c r="C422">
+        <v>0.1240815312159711</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B423">
+        <v>0.03847391354455065</v>
+      </c>
+      <c r="C423">
+        <v>0.1285331083451398</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B424">
+        <v>0.06254682431585046</v>
+      </c>
+      <c r="C424">
+        <v>0.1472912705751483</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B425">
+        <v>0.0346287726570198</v>
+      </c>
+      <c r="C425">
+        <v>0.1380094247984545</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B426">
+        <v>0.03510232261859381</v>
+      </c>
+      <c r="C426">
+        <v>0.1378354649915381</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B427">
+        <v>0.02271733964767586</v>
+      </c>
+      <c r="C427">
+        <v>0.1289045555511885</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B428">
+        <v>0.01694654686670249</v>
+      </c>
+      <c r="C428">
+        <v>0.1216343836849023</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B429">
+        <v>0.02321131872284088</v>
+      </c>
+      <c r="C429">
+        <v>0.1286837265376797</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B430">
+        <v>0.04896479384730723</v>
+      </c>
+      <c r="C430">
+        <v>0.1474826863835454</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B431">
+        <v>0.0512019012899172</v>
+      </c>
+      <c r="C431">
+        <v>0.1489590096903712</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B432">
+        <v>0.03484670355315234</v>
+      </c>
+      <c r="C432">
+        <v>0.1340400441309779</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B433">
+        <v>0.05500255040535129</v>
+      </c>
+      <c r="C433">
+        <v>0.1546352665079478</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2">
+        <v>43294</v>
+      </c>
+      <c r="B434">
+        <v>0.05824344695108974</v>
+      </c>
+      <c r="C434">
+        <v>0.1579495907245976</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B435">
+        <v>0.05270127926769064</v>
+      </c>
+      <c r="C435">
+        <v>0.1564634770168054</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B436">
+        <v>0.04654768465287873</v>
+      </c>
+      <c r="C436">
+        <v>0.1531801241680986</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B437">
+        <v>0.04165940615787012</v>
+      </c>
+      <c r="C437">
+        <v>0.1511151065162675</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B438">
+        <v>0.04092785386465825</v>
+      </c>
+      <c r="C438">
+        <v>0.14791416912983</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B439">
+        <v>0.05864168307196715</v>
+      </c>
+      <c r="C439">
+        <v>0.1625541368629826</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B440">
+        <v>0.06765842196840643</v>
+      </c>
+      <c r="C440">
+        <v>0.1665887963180279</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B441">
+        <v>0.08284607673332611</v>
+      </c>
+      <c r="C441">
+        <v>0.1832212693082185</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B442">
+        <v>0.08174735613486694</v>
+      </c>
+      <c r="C442">
+        <v>0.1904731451012427</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B443">
+        <v>0.07049765664603913</v>
+      </c>
+      <c r="C443">
+        <v>0.1801465249665111</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B444">
+        <v>0.0665095267671203</v>
+      </c>
+      <c r="C444">
+        <v>0.1787587516783109</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B445">
+        <v>0.06494161474791849</v>
+      </c>
+      <c r="C445">
+        <v>0.1744680935755882</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B446">
+        <v>0.06578226838952017</v>
+      </c>
+      <c r="C446">
+        <v>0.1747459630579293</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B447">
+        <v>0.0467379372657406</v>
+      </c>
+      <c r="C447">
+        <v>0.1644712883637194</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B448">
+        <v>0.02594704244556012</v>
+      </c>
+      <c r="C448">
+        <v>0.1455890185231876</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B449">
+        <v>0.01081547665573734</v>
+      </c>
+      <c r="C449">
+        <v>0.1434781184729854</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B450">
+        <v>-0.000603873662680221</v>
+      </c>
+      <c r="C450">
+        <v>0.1400340133166575</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B451">
+        <v>0.02576865338329526</v>
+      </c>
+      <c r="C451">
+        <v>0.15786218493212</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B452">
+        <v>0.01087095178031428</v>
+      </c>
+      <c r="C452">
+        <v>0.150647229524693</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B453">
+        <v>0.03351317000066545</v>
+      </c>
+      <c r="C453">
+        <v>0.1648559859743834</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B454">
+        <v>0.03541627582172091</v>
+      </c>
+      <c r="C454">
+        <v>0.1622893951004507</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B455">
+        <v>0.03125381268941041</v>
+      </c>
+      <c r="C455">
+        <v>0.1584651264264456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B456">
+        <v>0.02642764904795825</v>
+      </c>
+      <c r="C456">
+        <v>0.1569942562303217</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B457">
+        <v>0.004276487152005348</v>
+      </c>
+      <c r="C457">
+        <v>0.1408312749364053</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B458">
+        <v>7.639605162124141e-05</v>
+      </c>
+      <c r="C458">
+        <v>0.1388434741894022</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B459">
+        <v>-0.01297633670965304</v>
+      </c>
+      <c r="C459">
+        <v>0.1335164633004871</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B460">
+        <v>-0.00279443060428719</v>
+      </c>
+      <c r="C460">
+        <v>0.1411014431094166</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B461">
+        <v>0.01346663774563206</v>
+      </c>
+      <c r="C461">
+        <v>0.1473425287041301</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B462">
+        <v>0.008334406536170569</v>
+      </c>
+      <c r="C462">
+        <v>0.1447856507281633</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B463">
+        <v>0.01171503407562824</v>
+      </c>
+      <c r="C463">
+        <v>0.1457389222630641</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B464">
+        <v>0.01325087307493922</v>
+      </c>
+      <c r="C464">
+        <v>0.1493805617624731</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B465">
+        <v>0.03552929472934885</v>
+      </c>
+      <c r="C465">
+        <v>0.1676257152759248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B466">
+        <v>0.03376222638451609</v>
+      </c>
+      <c r="C466">
+        <v>0.1644927506431408</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2">
+        <v>43341</v>
+      </c>
+      <c r="B467">
+        <v>0.03003829844989259</v>
+      </c>
+      <c r="C467">
+        <v>0.1648515870913554</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B468">
+        <v>0.02037169065972533</v>
+      </c>
+      <c r="C468">
+        <v>0.1554394409762716</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B469">
+        <v>0.01589730677258983</v>
+      </c>
+      <c r="C469">
+        <v>0.1499193555064955</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B470">
+        <v>0.01244272669634028</v>
+      </c>
+      <c r="C470">
+        <v>0.1489893300183158</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B471">
+        <v>0.02393270338876996</v>
+      </c>
+      <c r="C471">
+        <v>0.1561831090735519</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B472">
+        <v>0.005925462249207536</v>
+      </c>
+      <c r="C472">
+        <v>0.1394442016804271</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B473">
+        <v>-0.003757803412459904</v>
+      </c>
+      <c r="C473">
+        <v>0.1319643889816897</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B474">
+        <v>0.0002903904200510787</v>
+      </c>
+      <c r="C474">
+        <v>0.1191687338185665</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B475">
+        <v>-0.01280061370804786</v>
+      </c>
+      <c r="C475">
+        <v>0.1094668371325689</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B476">
+        <v>-0.01448508610253396</v>
+      </c>
+      <c r="C476">
+        <v>0.1084966045497699</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B477">
+        <v>-0.02060998654820523</v>
+      </c>
+      <c r="C477">
+        <v>0.1062892749037918</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B478">
+        <v>-0.01107229218510841</v>
+      </c>
+      <c r="C478">
+        <v>0.1186463944104548</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B479">
+        <v>-0.009506415385951206</v>
+      </c>
+      <c r="C479">
+        <v>0.1183721928098469</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B480">
+        <v>-0.01965633079345408</v>
+      </c>
+      <c r="C480">
+        <v>0.1080140519807673</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B481">
+        <v>-0.001869904790336108</v>
+      </c>
+      <c r="C481">
+        <v>0.1207376554362971</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B482">
+        <v>0.009943271948465116</v>
+      </c>
+      <c r="C482">
+        <v>0.1307503433851134</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B483">
+        <v>0.009261424807311736</v>
+      </c>
+      <c r="C483">
+        <v>0.1331353769890466</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B484">
+        <v>0.03680214330604126</v>
+      </c>
+      <c r="C484">
+        <v>0.1481468526674101</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B485">
+        <v>0.02848108497387192</v>
+      </c>
+      <c r="C485">
+        <v>0.1442185110116203</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B486">
+        <v>0.03876442038382444</v>
+      </c>
+      <c r="C486">
+        <v>0.1482597599525344</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B487">
+        <v>0.03510648834242258</v>
+      </c>
+      <c r="C487">
+        <v>0.1446238822497079</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B488">
+        <v>0.04485393230924228</v>
+      </c>
+      <c r="C488">
+        <v>0.1514426366562684</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B489">
+        <v>0.004537607536868604</v>
+      </c>
+      <c r="C489">
+        <v>0.1134239611350294</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B490">
+        <v>0.003976762585209848</v>
+      </c>
+      <c r="C490">
+        <v>0.1127227470817012</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B491">
+        <v>0.002070926666294159</v>
+      </c>
+      <c r="C491">
+        <v>0.1028139760405073</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B492">
+        <v>-0.04111720951059472</v>
+      </c>
+      <c r="C492">
+        <v>0.06056093928362238</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B493">
+        <v>-0.02816930275069662</v>
+      </c>
+      <c r="C493">
+        <v>0.07275779778300251</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B494">
+        <v>-0.04031810962483828</v>
+      </c>
+      <c r="C494">
+        <v>0.0602333334299856</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B495">
+        <v>-0.04733555063282702</v>
+      </c>
+      <c r="C495">
+        <v>0.05990957726012613</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B496">
+        <v>-0.04253200871956841</v>
+      </c>
+      <c r="C496">
+        <v>0.0628471431816493</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B497">
+        <v>-0.06289533699154481</v>
+      </c>
+      <c r="C497">
+        <v>0.04908660230547235</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B498">
+        <v>-0.03775503438923966</v>
+      </c>
+      <c r="C498">
+        <v>0.062860117729445</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B499">
+        <v>-0.0003683222490002969</v>
+      </c>
+      <c r="C499">
+        <v>0.08672742846748127</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B500">
+        <v>-0.02423967821144168</v>
+      </c>
+      <c r="C500">
+        <v>0.06705468434241246</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B501">
+        <v>-0.0228702265202203</v>
+      </c>
+      <c r="C501">
+        <v>0.05691495717922446</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B502">
+        <v>-0.02110911330262033</v>
+      </c>
+      <c r="C502">
+        <v>0.05940834728360778</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B503">
+        <v>-0.02675097911888369</v>
+      </c>
+      <c r="C503">
+        <v>0.05067663700538927</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B504">
+        <v>-0.05337095540958858</v>
+      </c>
+      <c r="C504">
+        <v>0.03885628912688155</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B505">
+        <v>-0.04406454113152736</v>
+      </c>
+      <c r="C505">
+        <v>0.04668544990627543</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B506">
+        <v>-0.03198773386165898</v>
+      </c>
+      <c r="C506">
+        <v>0.0611331780667872</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B507">
+        <v>-0.02554006861059233</v>
+      </c>
+      <c r="C507">
+        <v>0.0728953795075713</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B508">
+        <v>0.005708412457625656</v>
+      </c>
+      <c r="C508">
+        <v>0.09860862845537133</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B509">
+        <v>-0.001797163997753315</v>
+      </c>
+      <c r="C509">
+        <v>0.08784904400944127</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B510">
+        <v>-0.007181579699246043</v>
+      </c>
+      <c r="C510">
+        <v>0.09088652586384738</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B511">
+        <v>-0.01296156908134571</v>
+      </c>
+      <c r="C511">
+        <v>0.09412544201327955</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B512">
+        <v>-0.01540432444258588</v>
+      </c>
+      <c r="C512">
+        <v>0.09343403477075563</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="2">
+        <v>43413</v>
+      </c>
+      <c r="B513">
+        <v>-0.02785883756059349</v>
+      </c>
+      <c r="C513">
+        <v>0.08002511891588115</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B514">
+        <v>-0.01740662643434021</v>
+      </c>
+      <c r="C514">
+        <v>0.08502628396764433</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B515">
+        <v>-0.00847729236131689</v>
+      </c>
+      <c r="C515">
+        <v>0.09434711731689505</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B516">
+        <v>-0.01723005378452669</v>
+      </c>
+      <c r="C516">
+        <v>0.08549284427029069</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B517">
+        <v>-0.006814512417306684</v>
+      </c>
+      <c r="C517">
+        <v>0.1005953928344756</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B518">
+        <v>-0.002433582637354492</v>
+      </c>
+      <c r="C518">
+        <v>0.1049260285298712</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="2">
+        <v>43423</v>
+      </c>
+      <c r="B519">
+        <v>0.007865707553022405</v>
+      </c>
+      <c r="C519">
+        <v>0.1052764327685898</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B520">
+        <v>-0.01306966057812953</v>
+      </c>
+      <c r="C520">
+        <v>0.08243185657811258</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2">
+        <v>43425</v>
+      </c>
+      <c r="B521">
+        <v>-0.01085619593472709</v>
+      </c>
+      <c r="C521">
+        <v>0.08772920518899996</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2">
+        <v>43426</v>
+      </c>
+      <c r="B522">
+        <v>-0.01417320626346641</v>
+      </c>
+      <c r="C522">
+        <v>0.08724699975633055</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>43427</v>
+      </c>
+      <c r="B523">
+        <v>-0.03376957576789252</v>
+      </c>
+      <c r="C523">
+        <v>0.0705765971190957</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2">
+        <v>43430</v>
+      </c>
+      <c r="B524">
+        <v>-0.03437438817068772</v>
+      </c>
+      <c r="C524">
+        <v>0.08133646517603266</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B525">
+        <v>-0.03550437535610718</v>
+      </c>
+      <c r="C525">
+        <v>0.0824341896015921</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2">
+        <v>43432</v>
+      </c>
+      <c r="B526">
+        <v>-0.02394624071009976</v>
+      </c>
+      <c r="C526">
+        <v>0.09844362440210963</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2">
+        <v>43433</v>
+      </c>
+      <c r="B527">
+        <v>-0.03529824209118493</v>
+      </c>
+      <c r="C527">
+        <v>0.08625757141547186</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B528">
+        <v>-0.02556082388753711</v>
+      </c>
+      <c r="C528">
+        <v>0.09317840582667403</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2">
+        <v>43437</v>
+      </c>
+      <c r="B529">
+        <v>-0.001120211683120043</v>
+      </c>
+      <c r="C529">
+        <v>0.1181535409651506</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B530">
+        <v>0.0008415805784542929</v>
+      </c>
+      <c r="C530">
+        <v>0.1084664664647368</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>43439</v>
+      </c>
+      <c r="B531">
+        <v>-0.003359026292197087</v>
+      </c>
+      <c r="C531">
+        <v>0.09798465887924968</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="2">
+        <v>43440</v>
+      </c>
+      <c r="B532">
+        <v>-0.02268090608024298</v>
+      </c>
+      <c r="C532">
+        <v>0.07882826029056433</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B533">
+        <v>-0.02265960291295643</v>
+      </c>
+      <c r="C533">
+        <v>0.07249832070198159</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B534">
+        <v>-0.03271312476222499</v>
+      </c>
+      <c r="C534">
+        <v>0.06372186738136332</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B535">
+        <v>-0.02849454574105903</v>
+      </c>
+      <c r="C535">
+        <v>0.06909123862463695</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B536">
+        <v>-0.02548285501912795</v>
+      </c>
+      <c r="C536">
+        <v>0.0772868669525788</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="2">
+        <v>43447</v>
+      </c>
+      <c r="B537">
+        <v>-0.01196611545490334</v>
+      </c>
+      <c r="C537">
+        <v>0.0851151625132478</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B538">
+        <v>-0.02692270111338069</v>
+      </c>
+      <c r="C538">
+        <v>0.06573785399058729</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B539">
+        <v>-0.02826744226524525</v>
+      </c>
+      <c r="C539">
+        <v>0.06122330399965481</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B540">
+        <v>-0.03739873098086688</v>
+      </c>
+      <c r="C540">
+        <v>0.05373867899677487</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="2">
+        <v>43453</v>
+      </c>
+      <c r="B541">
+        <v>-0.04770091794286768</v>
+      </c>
+      <c r="C541">
+        <v>0.04536642849977102</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="2">
+        <v>43454</v>
+      </c>
+      <c r="B542">
+        <v>-0.05419160718536298</v>
+      </c>
+      <c r="C542">
+        <v>0.03753830820568149</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B543">
+        <v>-0.06468201704490872</v>
+      </c>
+      <c r="C543">
+        <v>0.02975690623556959</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B544">
+        <v>-0.06222453031602271</v>
+      </c>
+      <c r="C544">
+        <v>0.02606550566167232</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B545">
+        <v>-0.06799405163852068</v>
+      </c>
+      <c r="C545">
+        <v>0.02235961391313901</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B546">
+        <v>-0.07221586566215932</v>
+      </c>
+      <c r="C546">
+        <v>0.03126170797417549</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B547">
+        <v>-0.07538180153134844</v>
+      </c>
+      <c r="C547">
+        <v>0.02759054805774475</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B548">
+        <v>-0.06963448665856298</v>
+      </c>
+      <c r="C548">
+        <v>0.02733999265896259</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="2">
+        <v>43467</v>
+      </c>
+      <c r="B549">
+        <v>-0.08084043889665748</v>
+      </c>
+      <c r="C549">
+        <v>0.02004000785796833</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="2">
+        <v>43468</v>
+      </c>
+      <c r="B550">
+        <v>-0.08197890037437927</v>
+      </c>
+      <c r="C550">
+        <v>0.0121122444209778</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B551">
+        <v>-0.06210076030450107</v>
+      </c>
+      <c r="C551">
+        <v>0.03753706516087374</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B552">
+        <v>-0.05691718540865709</v>
+      </c>
+      <c r="C552">
+        <v>0.04596106766458008</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B553">
+        <v>-0.05863744953579175</v>
+      </c>
+      <c r="C553">
+        <v>0.04729094357813679</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="2">
+        <v>43474</v>
+      </c>
+      <c r="B554">
+        <v>-0.05002242480203856</v>
+      </c>
+      <c r="C554">
+        <v>0.05905923091669107</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B555">
+        <v>-0.05158989951094428</v>
+      </c>
+      <c r="C555">
+        <v>0.0571779559521739</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B556">
+        <v>-0.04546866931729332</v>
+      </c>
+      <c r="C556">
+        <v>0.0595434967651407</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B557">
+        <v>-0.05295955246105488</v>
+      </c>
+      <c r="C557">
+        <v>0.04742098807278694</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B558">
+        <v>-0.03628061207900057</v>
+      </c>
+      <c r="C558">
+        <v>0.06298449607810253</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="2">
+        <v>43481</v>
+      </c>
+      <c r="B559">
+        <v>-0.03604381198521156</v>
+      </c>
+      <c r="C559">
+        <v>0.06484699852129916</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B560">
+        <v>-0.04072758661589737</v>
+      </c>
+      <c r="C560">
+        <v>0.06288549354559603</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B561">
+        <v>-0.02497003896082983</v>
+      </c>
+      <c r="C561">
+        <v>0.07697667765523408</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B562">
+        <v>-0.02013070559582253</v>
+      </c>
+      <c r="C562">
+        <v>0.08088195389343111</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B563">
+        <v>-0.03186286484338452</v>
+      </c>
+      <c r="C563">
+        <v>0.06972929853838616</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B564">
+        <v>-0.03249514997558178</v>
+      </c>
+      <c r="C564">
+        <v>0.071574275459793</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B565">
+        <v>-0.02758382519206293</v>
+      </c>
+      <c r="C565">
+        <v>0.07396078754109459</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B566">
+        <v>-0.02051888294390269</v>
+      </c>
+      <c r="C566">
+        <v>0.08386595807159325</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B567">
+        <v>-0.02073922811123685</v>
+      </c>
+      <c r="C567">
+        <v>0.07652632732037823</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B568">
+        <v>-0.01788311730483938</v>
+      </c>
+      <c r="C568">
+        <v>0.07264527856495495</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B569">
+        <v>-0.02487730563234625</v>
+      </c>
+      <c r="C569">
+        <v>0.07536746230231461</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B570">
+        <v>-0.01563286805781161</v>
+      </c>
+      <c r="C570">
+        <v>0.07923348788650553</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B571">
+        <v>-0.002929394248962991</v>
+      </c>
+      <c r="C571">
+        <v>0.08975105277235906</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="2">
+        <v>43507</v>
+      </c>
+      <c r="B572">
+        <v>0.01356102990913777</v>
+      </c>
+      <c r="C572">
+        <v>0.1045157531676242</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B573">
+        <v>0.0201908471559924</v>
+      </c>
+      <c r="C573">
+        <v>0.1140830230414287</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="2">
+        <v>43509</v>
+      </c>
+      <c r="B574">
+        <v>0.03860613482575737</v>
+      </c>
+      <c r="C574">
+        <v>0.1264013135549737</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B575">
+        <v>0.04002541406580762</v>
+      </c>
+      <c r="C575">
+        <v>0.1270766121144531</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B576">
+        <v>0.02259565710869693</v>
+      </c>
+      <c r="C576">
+        <v>0.1177057096249072</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B577">
+        <v>0.05208278365440533</v>
+      </c>
+      <c r="C577">
+        <v>0.1388587624115605</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B578">
+        <v>0.05035027772582601</v>
+      </c>
+      <c r="C578">
+        <v>0.1378701468529488</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B579">
+        <v>0.05375699239224763</v>
+      </c>
+      <c r="C579">
+        <v>0.1415752703695505</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B580">
+        <v>0.0512262124573144</v>
+      </c>
+      <c r="C580">
+        <v>0.1383536822840816</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="2">
+        <v>43518</v>
+      </c>
+      <c r="B581">
+        <v>0.07248763044935957</v>
+      </c>
+      <c r="C581">
+        <v>0.1534513721872615</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="2">
+        <v>43521</v>
+      </c>
+      <c r="B582">
+        <v>0.1298457650243883</v>
+      </c>
+      <c r="C582">
+        <v>0.1843231486137669</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B583">
+        <v>0.1175018332890281</v>
+      </c>
+      <c r="C583">
+        <v>0.1772288611461794</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B584">
+        <v>0.1157269288200469</v>
+      </c>
+      <c r="C584">
+        <v>0.1744573089822361</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B585">
+        <v>0.1132943594914295</v>
+      </c>
+      <c r="C585">
+        <v>0.1725326636487434</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B586">
+        <v>0.1351681668531644</v>
+      </c>
+      <c r="C586">
+        <v>0.1842604177089158</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B587">
+        <v>0.1472220338086752</v>
+      </c>
+      <c r="C587">
+        <v>0.192359186079688</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B588">
+        <v>0.1531408114008888</v>
+      </c>
+      <c r="C588">
+        <v>0.1991524343096356</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B589">
+        <v>0.1618380036029043</v>
+      </c>
+      <c r="C589">
+        <v>0.2046466782261778</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B590">
+        <v>0.1512443708369458</v>
+      </c>
+      <c r="C590">
+        <v>0.2002735913465739</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B591">
+        <v>0.1102384868827544</v>
+      </c>
+      <c r="C591">
+        <v>0.1758837404887679</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>43535</v>
+      </c>
+      <c r="B592">
+        <v>0.1300705884737929</v>
+      </c>
+      <c r="C592">
+        <v>0.1974904543245952</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B593">
+        <v>0.1369758390263229</v>
+      </c>
+      <c r="C593">
+        <v>0.2084735602597338</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2">
+        <v>43537</v>
+      </c>
+      <c r="B594">
+        <v>0.1284667284435572</v>
+      </c>
+      <c r="C594">
+        <v>0.2019453901613852</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="2">
+        <v>43538</v>
+      </c>
+      <c r="B595">
+        <v>0.1214462999809167</v>
+      </c>
+      <c r="C595">
+        <v>0.1940463056367097</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B596">
+        <v>0.1341091670870256</v>
+      </c>
+      <c r="C596">
+        <v>0.2047428469224091</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B597">
+        <v>0.1632223655000107</v>
+      </c>
+      <c r="C597">
+        <v>0.22285605503174</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B598">
+        <v>0.1583838729598155</v>
+      </c>
+      <c r="C598">
+        <v>0.2230369547255282</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="2">
+        <v>43544</v>
+      </c>
+      <c r="B599">
+        <v>0.1587876975783153</v>
+      </c>
+      <c r="C599">
+        <v>0.2204736847044404</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="2">
+        <v>43545</v>
+      </c>
+      <c r="B600">
+        <v>0.1592324237348186</v>
+      </c>
+      <c r="C600">
+        <v>0.2222310307091104</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="2">
+        <v>43546</v>
+      </c>
+      <c r="B601">
+        <v>0.1584420388321823</v>
+      </c>
+      <c r="C601">
+        <v>0.2185514215665081</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="2">
+        <v>43549</v>
+      </c>
+      <c r="B602">
+        <v>0.1338081436198502</v>
+      </c>
+      <c r="C602">
+        <v>0.2041819000461982</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B603">
+        <v>0.122334755075395</v>
+      </c>
+      <c r="C603">
+        <v>0.1969270829865784</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="2">
+        <v>43551</v>
+      </c>
+      <c r="B604">
+        <v>0.1340768895317099</v>
+      </c>
+      <c r="C604">
+        <v>0.2032113092800509</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="2">
+        <v>43552</v>
+      </c>
+      <c r="B605">
+        <v>0.1300368073817708</v>
+      </c>
+      <c r="C605">
+        <v>0.2017449003219596</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B606">
+        <v>0.1693433267835043</v>
+      </c>
+      <c r="C606">
+        <v>0.2249420096808796</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B607">
+        <v>0.1968758465348277</v>
+      </c>
+      <c r="C607">
+        <v>0.2446838973114418</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B608">
+        <v>0.1960771537167953</v>
+      </c>
+      <c r="C608">
+        <v>0.2456857024449306</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="2">
+        <v>43558</v>
+      </c>
+      <c r="B609">
+        <v>0.2097192244987196</v>
+      </c>
+      <c r="C609">
+        <v>0.2550168821276093</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="2">
+        <v>43559</v>
+      </c>
+      <c r="B610">
+        <v>0.2204361943551834</v>
+      </c>
+      <c r="C610">
+        <v>0.2567872493851191</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B611">
+        <v>0.2190794305726773</v>
+      </c>
+      <c r="C611">
+        <v>0.2610242291098135</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B612">
+        <v>0.2239423969352345</v>
+      </c>
+      <c r="C612">
+        <v>0.2605002981137883</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B613">
+        <v>0.2266269294321035</v>
+      </c>
+      <c r="C613">
+        <v>0.2614693643319885</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="2">
+        <v>43566</v>
+      </c>
+      <c r="B614">
+        <v>0.2027968052902072</v>
+      </c>
+      <c r="C614">
+        <v>0.2501592071237253</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="2">
+        <v>43567</v>
+      </c>
+      <c r="B615">
+        <v>0.2003998875956385</v>
+      </c>
+      <c r="C615">
+        <v>0.2536984472005626</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B616">
+        <v>0.1966593713198073</v>
+      </c>
+      <c r="C616">
+        <v>0.2487201249050324</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B617">
+        <v>0.2263389156369922</v>
+      </c>
+      <c r="C617">
+        <v>0.2613765191875748</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B618">
+        <v>0.2266785169376644</v>
+      </c>
+      <c r="C618">
+        <v>0.2614539159372182</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B619">
+        <v>0.222623328995637</v>
+      </c>
+      <c r="C619">
+        <v>0.256297356844891</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B620">
+        <v>0.2358323298306391</v>
+      </c>
+      <c r="C620">
+        <v>0.2596183984413409</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="2">
+        <v>43577</v>
+      </c>
+      <c r="B621">
+        <v>0.2101811494464325</v>
+      </c>
+      <c r="C621">
+        <v>0.253740331618324</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="2">
+        <v>43578</v>
+      </c>
+      <c r="B622">
+        <v>0.2083274315873878</v>
+      </c>
+      <c r="C622">
+        <v>0.2547527398952267</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="2">
+        <v>43579</v>
+      </c>
+      <c r="B623">
+        <v>0.2112722463701333</v>
+      </c>
+      <c r="C623">
+        <v>0.2555628401850016</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="2">
+        <v>43580</v>
+      </c>
+      <c r="B624">
+        <v>0.1874064257357166</v>
+      </c>
+      <c r="C624">
+        <v>0.2425673592824225</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="2">
+        <v>43581</v>
+      </c>
+      <c r="B625">
+        <v>0.1732031951497028</v>
+      </c>
+      <c r="C625">
+        <v>0.2408155758550761</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="2">
+        <v>43584</v>
+      </c>
+      <c r="B626">
+        <v>0.1761944427041575</v>
+      </c>
+      <c r="C626">
+        <v>0.2404865936125971</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B627">
+        <v>0.1797630198362707</v>
+      </c>
+      <c r="C627">
+        <v>0.2403461527255806</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B628">
+        <v>0.1179976698607015</v>
+      </c>
+      <c r="C628">
+        <v>0.2099660951780673</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="2">
+        <v>43592</v>
+      </c>
+      <c r="B629">
+        <v>0.1279109649649339</v>
+      </c>
+      <c r="C629">
+        <v>0.2126961871510162</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="2">
+        <v>43593</v>
+      </c>
+      <c r="B630">
+        <v>0.1134584903446596</v>
+      </c>
+      <c r="C630">
+        <v>0.2044906735942049</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="2">
+        <v>43594</v>
+      </c>
+      <c r="B631">
+        <v>0.09504041688705001</v>
+      </c>
+      <c r="C631">
+        <v>0.1908674315650603</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="2">
+        <v>43595</v>
+      </c>
+      <c r="B632">
+        <v>0.1308915971085141</v>
+      </c>
+      <c r="C632">
+        <v>0.2099240621727885</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="2">
+        <v>43598</v>
+      </c>
+      <c r="B633">
+        <v>0.1141632567054263</v>
+      </c>
+      <c r="C633">
+        <v>0.1970871568046388</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B634">
+        <v>0.1077727042443593</v>
+      </c>
+      <c r="C634">
+        <v>0.1964764713854403</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B635">
+        <v>0.1301873626048999</v>
+      </c>
+      <c r="C635">
+        <v>0.2108549378408984</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="2">
+        <v>43601</v>
+      </c>
+      <c r="B636">
+        <v>0.134836290822542</v>
+      </c>
+      <c r="C636">
+        <v>0.2166188453557609</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="2">
+        <v>43602</v>
+      </c>
+      <c r="B637">
+        <v>0.108899487203963</v>
+      </c>
+      <c r="C637">
+        <v>0.2023704550310828</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="2">
+        <v>43605</v>
+      </c>
+      <c r="B638">
+        <v>0.1004661930824402</v>
+      </c>
+      <c r="C638">
+        <v>0.1975327066393548</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="2">
+        <v>43606</v>
+      </c>
+      <c r="B639">
+        <v>0.1138477979509367</v>
+      </c>
+      <c r="C639">
+        <v>0.2048246081419474</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="2">
+        <v>43607</v>
+      </c>
+      <c r="B640">
+        <v>0.1090308161722078</v>
+      </c>
+      <c r="C640">
+        <v>0.2026108778919422</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="2">
+        <v>43608</v>
+      </c>
+      <c r="B641">
+        <v>0.09116440812851812</v>
+      </c>
+      <c r="C641">
+        <v>0.1875222693097252</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="2">
+        <v>43609</v>
+      </c>
+      <c r="B642">
+        <v>0.09392550738635208</v>
+      </c>
+      <c r="C642">
+        <v>0.1886665532098561</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="2">
+        <v>43612</v>
+      </c>
+      <c r="B643">
+        <v>0.1057394222157784</v>
+      </c>
+      <c r="C643">
+        <v>0.1940458414236179</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B644">
+        <v>0.1152907665650693</v>
+      </c>
+      <c r="C644">
+        <v>0.1939762156566938</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="2">
+        <v>43614</v>
+      </c>
+      <c r="B645">
+        <v>0.1131122713287911</v>
+      </c>
+      <c r="C645">
+        <v>0.1895348832682162</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="2">
+        <v>43615</v>
+      </c>
+      <c r="B646">
+        <v>0.1069583408207462</v>
+      </c>
+      <c r="C646">
+        <v>0.1870270908438256</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B647">
+        <v>0.1038871193036908</v>
+      </c>
+      <c r="C647">
+        <v>0.1794167479787681</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="2">
+        <v>43619</v>
+      </c>
+      <c r="B648">
+        <v>0.1045549504969523</v>
+      </c>
+      <c r="C648">
+        <v>0.1758034902461483</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="2">
+        <v>43620</v>
+      </c>
+      <c r="B649">
+        <v>0.09544934190209164</v>
+      </c>
+      <c r="C649">
+        <v>0.1755646960179418</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="2">
+        <v>43621</v>
+      </c>
+      <c r="B650">
+        <v>0.09514301816809367</v>
+      </c>
+      <c r="C650">
+        <v>0.1798367486023866</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="2">
+        <v>43622</v>
+      </c>
+      <c r="B651">
+        <v>0.08629915865134263</v>
+      </c>
+      <c r="C651">
+        <v>0.1763118318314687</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="2">
+        <v>43626</v>
+      </c>
+      <c r="B652">
+        <v>0.09896132673662472</v>
+      </c>
+      <c r="C652">
+        <v>0.1918778014557132</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B653">
+        <v>0.1286162634797636</v>
+      </c>
+      <c r="C653">
+        <v>0.208840742281289</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="2">
+        <v>43628</v>
+      </c>
+      <c r="B654">
+        <v>0.1209232432884833</v>
+      </c>
+      <c r="C654">
+        <v>0.2003016044440773</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="2">
+        <v>43629</v>
+      </c>
+      <c r="B655">
+        <v>0.119393921254682</v>
+      </c>
+      <c r="C655">
+        <v>0.2021795925961727</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B656">
+        <v>0.1110932144309569</v>
+      </c>
+      <c r="C656">
+        <v>0.193559507033191</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="2">
+        <v>43633</v>
+      </c>
+      <c r="B657">
+        <v>0.1111632225838968</v>
+      </c>
+      <c r="C657">
+        <v>0.1956005466649271</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B658">
+        <v>0.1146799251144532</v>
+      </c>
+      <c r="C658">
+        <v>0.2018312560799562</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="2">
+        <v>43635</v>
+      </c>
+      <c r="B659">
+        <v>0.1279201104903962</v>
+      </c>
+      <c r="C659">
+        <v>0.216235723077169</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="2">
+        <v>43636</v>
+      </c>
+      <c r="B660">
+        <v>0.1587244906114109</v>
+      </c>
+      <c r="C660">
+        <v>0.2338369083405485</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="2">
+        <v>43637</v>
+      </c>
+      <c r="B661">
+        <v>0.1602395320039192</v>
+      </c>
+      <c r="C661">
+        <v>0.2334431066580009</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="2">
+        <v>43640</v>
+      </c>
+      <c r="B662">
+        <v>0.1622723941181099</v>
+      </c>
+      <c r="C662">
+        <v>0.2341535993629265</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B663">
+        <v>0.1514110250529366</v>
+      </c>
+      <c r="C663">
+        <v>0.2246911217710621</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="2">
+        <v>43642</v>
+      </c>
+      <c r="B664">
+        <v>0.1495247254597378</v>
+      </c>
+      <c r="C664">
+        <v>0.2251365775156307</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="2">
+        <v>43643</v>
+      </c>
+      <c r="B665">
+        <v>0.160585868704535</v>
+      </c>
+      <c r="C665">
+        <v>0.2356425139025655</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B666">
+        <v>0.158132152183156</v>
+      </c>
+      <c r="C666">
+        <v>0.2332442831845243</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B667">
+        <v>0.1882226424942977</v>
+      </c>
+      <c r="C667">
+        <v>0.2461883611483162</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B668">
+        <v>0.1887189130963487</v>
+      </c>
+      <c r="C668">
+        <v>0.2498013962395087</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="2">
+        <v>43649</v>
+      </c>
+      <c r="B669">
+        <v>0.1770023171049746</v>
+      </c>
+      <c r="C669">
+        <v>0.251064171492217</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B670">
+        <v>0.1715254964746906</v>
+      </c>
+      <c r="C670">
+        <v>0.249418665626622</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="2">
+        <v>43651</v>
+      </c>
+      <c r="B671">
+        <v>0.1770194527343631</v>
+      </c>
+      <c r="C671">
+        <v>0.2507554530656826</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="2">
+        <v>43654</v>
+      </c>
+      <c r="B672">
+        <v>0.1524120263155739</v>
+      </c>
+      <c r="C672">
+        <v>0.2349760956287352</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B673">
+        <v>0.1497656687994697</v>
+      </c>
+      <c r="C673">
+        <v>0.2322338411953686</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="2">
+        <v>43656</v>
+      </c>
+      <c r="B674">
+        <v>0.1480543058043695</v>
+      </c>
+      <c r="C674">
+        <v>0.2331990857202602</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="2">
+        <v>43657</v>
+      </c>
+      <c r="B675">
+        <v>0.1476777547485975</v>
+      </c>
+      <c r="C675">
+        <v>0.2348166070392539</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="2">
+        <v>43658</v>
+      </c>
+      <c r="B676">
+        <v>0.1541068230590186</v>
+      </c>
+      <c r="C676">
+        <v>0.2387879178238066</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="2">
+        <v>43661</v>
+      </c>
+      <c r="B677">
+        <v>0.1583561375873854</v>
+      </c>
+      <c r="C677">
+        <v>0.2426795992449158</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B678">
+        <v>0.1536293771512629</v>
+      </c>
+      <c r="C678">
+        <v>0.2422265288931607</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="2">
+        <v>43663</v>
+      </c>
+      <c r="B679">
+        <v>0.1530326044672297</v>
+      </c>
+      <c r="C679">
+        <v>0.2411368283044881</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="2">
+        <v>43664</v>
+      </c>
+      <c r="B680">
+        <v>0.1431800168403907</v>
+      </c>
+      <c r="C680">
+        <v>0.2357327998770686</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="2">
+        <v>43665</v>
+      </c>
+      <c r="B681">
+        <v>0.1539906704524829</v>
+      </c>
+      <c r="C681">
+        <v>0.2392199716353713</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B682">
+        <v>0.1468660759366884</v>
+      </c>
+      <c r="C682">
+        <v>0.2321943733786491</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B683">
+        <v>0.1491709123701996</v>
+      </c>
+      <c r="C683">
+        <v>0.238140093368082</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B684">
+        <v>0.1573301175381954</v>
+      </c>
+      <c r="C684">
+        <v>0.2441921095811272</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B685">
+        <v>0.1658550963401613</v>
+      </c>
+      <c r="C685">
+        <v>0.2439069345285347</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B686">
+        <v>0.1679230954426698</v>
+      </c>
+      <c r="C686">
+        <v>0.2451800231285435</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" s="2">
+        <v>43675</v>
+      </c>
+      <c r="B687">
+        <v>0.1667645681877876</v>
+      </c>
+      <c r="C687">
+        <v>0.2408567040838656</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B688">
+        <v>0.1711231151112342</v>
+      </c>
+      <c r="C688">
+        <v>0.2424193341126597</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B689">
+        <v>0.1616714845359788</v>
+      </c>
+      <c r="C689">
+        <v>0.2315038591390897</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B690">
+        <v>0.1530400812881958</v>
+      </c>
+      <c r="C690">
+        <v>0.2245409245881054</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="2">
+        <v>43679</v>
+      </c>
+      <c r="B691">
+        <v>0.1379032305917942</v>
+      </c>
+      <c r="C691">
+        <v>0.2120414118002798</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="2">
+        <v>43682</v>
+      </c>
+      <c r="B692">
+        <v>0.1184688640263942</v>
+      </c>
+      <c r="C692">
+        <v>0.1923985446985015</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B693">
+        <v>0.1077798875635723</v>
+      </c>
+      <c r="C693">
+        <v>0.1906262785912229</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="2">
+        <v>43684</v>
+      </c>
+      <c r="B694">
+        <v>0.1037296503151861</v>
+      </c>
+      <c r="C694">
+        <v>0.1917419795554791</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="2">
+        <v>43685</v>
+      </c>
+      <c r="B695">
+        <v>0.1168938209449069</v>
+      </c>
+      <c r="C695">
+        <v>0.2018044253711582</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" s="2">
+        <v>43686</v>
+      </c>
+      <c r="B696">
+        <v>0.1071763420700074</v>
+      </c>
+      <c r="C696">
+        <v>0.1946972507166007</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="2">
+        <v>43689</v>
+      </c>
+      <c r="B697">
+        <v>0.1251979075718936</v>
+      </c>
+      <c r="C697">
+        <v>0.1980866789494136</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B698">
+        <v>0.1161332806386162</v>
+      </c>
+      <c r="C698">
+        <v>0.194418152546544</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="2">
+        <v>43691</v>
+      </c>
+      <c r="B699">
+        <v>0.1207570505889348</v>
+      </c>
+      <c r="C699">
+        <v>0.1892379230438181</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B700">
+        <v>0.1239861898404726</v>
+      </c>
+      <c r="C700">
+        <v>0.1940872565489833</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" s="2">
+        <v>43693</v>
+      </c>
+      <c r="B701">
+        <v>0.1285228089674015</v>
+      </c>
+      <c r="C701">
+        <v>0.2019595299947536</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" s="2">
+        <v>43696</v>
+      </c>
+      <c r="B702">
+        <v>0.1506042066654465</v>
+      </c>
+      <c r="C702">
+        <v>0.2214834362532891</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B703">
+        <v>0.1496887912427516</v>
+      </c>
+      <c r="C703">
+        <v>0.2192449157636822</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B704">
+        <v>0.1480294191522478</v>
+      </c>
+      <c r="C704">
+        <v>0.221771918243987</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="2">
+        <v>43699</v>
+      </c>
+      <c r="B705">
+        <v>0.1512032053642782</v>
+      </c>
+      <c r="C705">
+        <v>0.2206788448556516</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B706">
+        <v>0.1586672021117645</v>
+      </c>
+      <c r="C706">
+        <v>0.2175273506111923</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" s="2">
+        <v>43703</v>
+      </c>
+      <c r="B707">
+        <v>0.1437382639493678</v>
+      </c>
+      <c r="C707">
+        <v>0.2109944021696728</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B708">
+        <v>0.1576826421644146</v>
+      </c>
+      <c r="C708">
+        <v>0.2175882552364308</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" s="2">
+        <v>43705</v>
+      </c>
+      <c r="B709">
+        <v>0.1537519842015804</v>
+      </c>
+      <c r="C709">
+        <v>0.2176872667042438</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" s="2">
+        <v>43706</v>
+      </c>
+      <c r="B710">
+        <v>0.1503925614362263</v>
+      </c>
+      <c r="C710">
+        <v>0.2219019277814651</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" s="2">
+        <v>43707</v>
+      </c>
+      <c r="B711">
+        <v>0.1529021928607226</v>
+      </c>
+      <c r="C711">
+        <v>0.2206356631710586</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" s="2">
+        <v>43710</v>
+      </c>
+      <c r="B712">
+        <v>0.1662019512743267</v>
+      </c>
+      <c r="C712">
+        <v>0.2261583141493</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B713">
+        <v>0.1676120024390164</v>
+      </c>
+      <c r="C713">
+        <v>0.2247722818961861</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" s="2">
+        <v>43712</v>
+      </c>
+      <c r="B714">
+        <v>0.1764666561256456</v>
+      </c>
+      <c r="C714">
+        <v>0.244284268856876</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B715">
+        <v>0.1873107248684334</v>
+      </c>
+      <c r="C715">
+        <v>0.2507132058034303</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" s="2">
+        <v>43714</v>
+      </c>
+      <c r="B716">
+        <v>0.1937165145675686</v>
+      </c>
+      <c r="C716">
+        <v>0.2549548166249005</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" s="2">
+        <v>43717</v>
+      </c>
+      <c r="B717">
+        <v>0.2004152057944948</v>
+      </c>
+      <c r="C717">
+        <v>0.2599500822928065</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B718">
+        <v>0.1966774763827805</v>
+      </c>
+      <c r="C718">
+        <v>0.2588319936699919</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719" s="2">
+        <v>43719</v>
+      </c>
+      <c r="B719">
+        <v>0.1887205268149961</v>
+      </c>
+      <c r="C719">
+        <v>0.2646295897008832</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B720">
+        <v>0.200184333155526</v>
+      </c>
+      <c r="C720">
+        <v>0.26777957168414</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" s="2">
+        <v>43724</v>
+      </c>
+      <c r="B721">
+        <v>0.1962009093340717</v>
+      </c>
+      <c r="C721">
+        <v>0.2658027467503767</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B722">
+        <v>0.1781240228568184</v>
+      </c>
+      <c r="C722">
+        <v>0.2561605345761144</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" s="2">
+        <v>43726</v>
+      </c>
+      <c r="B723">
+        <v>0.183224264037021</v>
+      </c>
+      <c r="C723">
+        <v>0.2563068949267813</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" s="2">
+        <v>43727</v>
+      </c>
+      <c r="B724">
+        <v>0.1871070642922683</v>
+      </c>
+      <c r="C724">
+        <v>0.254779216369484</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" s="2">
+        <v>43728</v>
+      </c>
+      <c r="B725">
+        <v>0.1901594900892789</v>
+      </c>
+      <c r="C725">
+        <v>0.253848397885011</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B726">
+        <v>0.177942576767725</v>
+      </c>
+      <c r="C726">
+        <v>0.2475482727657781</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B727">
+        <v>0.1807722378594396</v>
+      </c>
+      <c r="C727">
+        <v>0.2472581814320274</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B728">
+        <v>0.1725603494311561</v>
+      </c>
+      <c r="C728">
+        <v>0.2392698687282171</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B729">
+        <v>0.1644050460376483</v>
+      </c>
+      <c r="C729">
+        <v>0.2346937753474465</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B730">
+        <v>0.1675120143139164</v>
+      </c>
+      <c r="C730">
+        <v>0.2340254806099924</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B731">
+        <v>0.1571587850937406</v>
+      </c>
+      <c r="C731">
+        <v>0.2330875381944562</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B732">
+        <v>0.1636009404652203</v>
+      </c>
+      <c r="C732">
+        <v>0.2250442847933478</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733" s="2">
+        <v>43747</v>
+      </c>
+      <c r="B733">
+        <v>0.1651629668223411</v>
+      </c>
+      <c r="C733">
+        <v>0.2259085910054721</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734" s="2">
+        <v>43748</v>
+      </c>
+      <c r="B734">
+        <v>0.1737155495092901</v>
+      </c>
+      <c r="C734">
+        <v>0.231967080514589</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735" s="2">
+        <v>43749</v>
+      </c>
+      <c r="B735">
+        <v>0.1837900197837246</v>
+      </c>
+      <c r="C735">
+        <v>0.2448974464432763</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B736">
+        <v>0.1950615108590394</v>
+      </c>
+      <c r="C736">
+        <v>0.2514306665492507</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B737">
+        <v>0.1904247215901114</v>
+      </c>
+      <c r="C737">
+        <v>0.2500405017145662</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738" s="2">
+        <v>43754</v>
+      </c>
+      <c r="B738">
+        <v>0.1867343434690083</v>
+      </c>
+      <c r="C738">
+        <v>0.2505649560564407</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739" s="2">
+        <v>43755</v>
+      </c>
+      <c r="B739">
+        <v>0.1874464706143133</v>
+      </c>
+      <c r="C739">
+        <v>0.2539571307943078</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" s="2">
+        <v>43756</v>
+      </c>
+      <c r="B740">
+        <v>0.1722302071010386</v>
+      </c>
+      <c r="C740">
+        <v>0.2456281441594654</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741" s="2">
+        <v>43759</v>
+      </c>
+      <c r="B741">
+        <v>0.1753311336606427</v>
+      </c>
+      <c r="C741">
+        <v>0.2473988929255506</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B742">
+        <v>0.1793726568814518</v>
+      </c>
+      <c r="C742">
+        <v>0.2496426281513395</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" s="2">
+        <v>43761</v>
+      </c>
+      <c r="B743">
+        <v>0.1726168828699977</v>
+      </c>
+      <c r="C743">
+        <v>0.2453842642867601</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744" s="2">
+        <v>43762</v>
+      </c>
+      <c r="B744">
+        <v>0.1725000488344186</v>
+      </c>
+      <c r="C744">
+        <v>0.2487630037317292</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745" s="2">
+        <v>43763</v>
+      </c>
+      <c r="B745">
+        <v>0.1796187973686136</v>
+      </c>
+      <c r="C745">
+        <v>0.2508479141923723</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746" s="2">
+        <v>43766</v>
+      </c>
+      <c r="B746">
+        <v>0.1876611484747692</v>
+      </c>
+      <c r="C746">
+        <v>0.259716089178083</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B747">
+        <v>0.1831335230815918</v>
+      </c>
+      <c r="C747">
+        <v>0.2532533733931952</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B748">
+        <v>0.1778543098816137</v>
+      </c>
+      <c r="C748">
+        <v>0.2491035060908697</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B749">
+        <v>0.1766001150139631</v>
+      </c>
+      <c r="C749">
+        <v>0.2500015447631381</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B750">
+        <v>0.1945117686411917</v>
+      </c>
+      <c r="C750">
+        <v>0.2591103450449033</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B751">
+        <v>0.2015380498920756</v>
+      </c>
+      <c r="C751">
+        <v>0.26654356818101</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B752">
+        <v>0.2083069750376418</v>
+      </c>
+      <c r="C752">
+        <v>0.2703913628784895</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="A753" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B753">
+        <v>0.2035269596451246</v>
+      </c>
+      <c r="C753">
+        <v>0.2655468960722773</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="A754" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B754">
+        <v>0.2054810479578475</v>
+      </c>
+      <c r="C754">
+        <v>0.2693308448928309</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755" s="2">
         <v>43777</v>
       </c>
-      <c r="B268">
-        <v>0.1949197978537291</v>
-      </c>
-      <c r="C268">
-        <v>0.159606466729783</v>
+      <c r="B755">
+        <v>0.2003418749344243</v>
+      </c>
+      <c r="C755">
+        <v>0.2661392663389024</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="A756" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B756">
+        <v>0.1813686880121128</v>
+      </c>
+      <c r="C756">
+        <v>0.2499017505917005</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="A757" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B757">
+        <v>0.1816285617509443</v>
+      </c>
+      <c r="C757">
+        <v>0.252072519054511</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="A758" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B758">
+        <v>0.1806501317625677</v>
+      </c>
+      <c r="C758">
+        <v>0.2471524044741868</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B759">
+        <v>0.1822789977484278</v>
+      </c>
+      <c r="C759">
+        <v>0.2472184033426705</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="A760" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B760">
+        <v>0.1744890387668268</v>
+      </c>
+      <c r="C760">
+        <v>0.2460829576943109</v>
       </c>
     </row>
   </sheetData>
